--- a/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97570E84-F2BE-497C-9C4B-C65F792EEA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F0165-936E-40A0-867B-F1E44E72EDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1892,7 +1892,7 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5:C150"/>
@@ -5253,10 +5253,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C151"/>
+      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="C97" s="6">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="D97" s="6"/>
       <c r="K97" s="1" t="s">
@@ -7100,14 +7100,14 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
-        <v>1797</v>
+        <v>1697</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="6">
         <f t="shared" si="1"/>
-        <v>-89</v>
+        <v>11</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>36</v>
@@ -8057,15 +8057,14 @@
       <c r="A152" s="6">
         <v>2531</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="K152" s="6"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
+      <c r="A153" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -8657,7 +8656,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C166"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11737,15 +11736,14 @@
       <c r="A167" s="6">
         <v>2515</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="K167" s="6"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="6"/>
+      <c r="A168" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -12231,7 +12229,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B108" sqref="B108"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14281,15 +14279,14 @@
       <c r="A108" s="6">
         <v>1100</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="K108" s="6"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
+      <c r="A109" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -15191,10 +15188,10 @@
   <dimension ref="A1:U234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C148"/>
+      <selection pane="bottomRight" activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18943,9 +18940,6 @@
       <c r="A149" s="21">
         <v>2585</v>
       </c>
-      <c r="B149" s="22" t="s">
-        <v>123</v>
-      </c>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
@@ -18958,7 +18952,9 @@
       <c r="L149" s="22"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
+      <c r="A150" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -19565,8 +19561,8 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G119" sqref="F119:G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20047,7 +20043,7 @@
       </c>
       <c r="C18" s="22">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>10</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>21</v>
@@ -20065,14 +20061,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="22">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>185</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>36</v>
@@ -21272,7 +21268,7 @@
       </c>
       <c r="C69" s="22">
         <f t="shared" si="0"/>
-        <v>-64</v>
+        <v>36</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
@@ -21288,14 +21284,14 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
-        <v>1232</v>
+        <v>1332</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>390</v>
       </c>
       <c r="C70" s="22">
         <f t="shared" ref="C70:C127" si="1">A71-A70</f>
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -22723,9 +22719,6 @@
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>2700</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
@@ -22739,7 +22732,9 @@
       <c r="L128" s="22"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
+      <c r="A129" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771F0165-936E-40A0-867B-F1E44E72EDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5BAAB3-DC52-4CC8-BB60-2D216570BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="529">
   <si>
     <t>D1</t>
   </si>
@@ -1487,6 +1487,147 @@
   </si>
   <si>
     <t>GOPR1215-6-7</t>
+  </si>
+  <si>
+    <t>GOPR0996-7</t>
+  </si>
+  <si>
+    <t>GOPR0997</t>
+  </si>
+  <si>
+    <t>GOPR0997-8</t>
+  </si>
+  <si>
+    <t>GOPR0998-9</t>
+  </si>
+  <si>
+    <t>GOPR0998</t>
+  </si>
+  <si>
+    <t>GOPR0999-1000</t>
+  </si>
+  <si>
+    <t>GOPR1000</t>
+  </si>
+  <si>
+    <t>GOPR1000-1</t>
+  </si>
+  <si>
+    <t>GOPR1001</t>
+  </si>
+  <si>
+    <t>GOPR1001-2-3</t>
+  </si>
+  <si>
+    <t>GOPR1003</t>
+  </si>
+  <si>
+    <t>GOPR1003-4</t>
+  </si>
+  <si>
+    <t>GOPR1004</t>
+  </si>
+  <si>
+    <t>GOPR1005</t>
+  </si>
+  <si>
+    <t>GOPR1006</t>
+  </si>
+  <si>
+    <t>GOPR1007</t>
+  </si>
+  <si>
+    <t>GOPR1007-8</t>
+  </si>
+  <si>
+    <t>GOPR1008</t>
+  </si>
+  <si>
+    <t>GOPR1008-9</t>
+  </si>
+  <si>
+    <t>GOPR1009</t>
+  </si>
+  <si>
+    <t>GOPR1009-10-11</t>
+  </si>
+  <si>
+    <t>GOPR1011</t>
+  </si>
+  <si>
+    <t>GOPR1011-2</t>
+  </si>
+  <si>
+    <t>GOPR1012</t>
+  </si>
+  <si>
+    <t>GOPR1012-3</t>
+  </si>
+  <si>
+    <t>GOPR1013</t>
+  </si>
+  <si>
+    <t>GOPR1013-4</t>
+  </si>
+  <si>
+    <t>GOPR1014</t>
+  </si>
+  <si>
+    <t>GOPR1015</t>
+  </si>
+  <si>
+    <t>GOPR1015-6-7</t>
+  </si>
+  <si>
+    <t>GOPR1017</t>
+  </si>
+  <si>
+    <t>GOPR1017-8</t>
+  </si>
+  <si>
+    <t>GOPR1018</t>
+  </si>
+  <si>
+    <t>GOPR1018-9</t>
+  </si>
+  <si>
+    <t>GOPR1019-20</t>
+  </si>
+  <si>
+    <t>GOPR1020</t>
+  </si>
+  <si>
+    <t>GOPR1020-1</t>
+  </si>
+  <si>
+    <t>GOPR1021</t>
+  </si>
+  <si>
+    <t>GOPR1021-2</t>
+  </si>
+  <si>
+    <t>GOPR1022</t>
+  </si>
+  <si>
+    <t>GOPR1022-3</t>
+  </si>
+  <si>
+    <t>GOPR1023</t>
+  </si>
+  <si>
+    <t>GOPR1024</t>
+  </si>
+  <si>
+    <t>GOPR1025</t>
+  </si>
+  <si>
+    <t>GOPR1025-6</t>
+  </si>
+  <si>
+    <t>GOPR1026-7</t>
+  </si>
+  <si>
+    <t>GOPR1027-8-9</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1688,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,6 +1731,12 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1619,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1671,12 +1818,18 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -12225,11 +12378,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="I170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12243,7 +12396,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="11.69921875" customWidth="1"/>
     <col min="9" max="10" width="8.59765625" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" customWidth="1"/>
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13602,7 +13755,7 @@
         <v>10</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" ref="C70:C107" si="1">A71-A70</f>
+        <f t="shared" ref="C70:C133" si="1">A71-A70</f>
         <v>3</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -14268,591 +14421,1474 @@
       </c>
       <c r="C107" s="6">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K107" s="6"/>
+      <c r="K107" s="1" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
-        <v>1100</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="K108" s="6"/>
+        <v>1137</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="K109" s="6"/>
+      <c r="A109" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="K110" s="6"/>
+      <c r="A110" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="K111" s="6"/>
+      <c r="A111" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="K112" s="6"/>
+      <c r="A112" s="1">
+        <v>1282</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="K113" s="6"/>
+      <c r="A113" s="1">
+        <v>1328</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="K114" s="6"/>
+      <c r="A114" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
+      <c r="A115" s="1">
+        <v>1337</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E115" s="6"/>
-      <c r="K115" s="6"/>
+      <c r="K115" s="1" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="K116" s="6"/>
+      <c r="A116" s="1">
+        <v>1368</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="K117" s="6"/>
+      <c r="A117" s="1">
+        <v>1385</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="L117" s="6"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="K118" s="6"/>
+      <c r="A118" s="1">
+        <v>1420</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="K119" s="6"/>
+      <c r="A119" s="1">
+        <v>1430</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="K120" s="6"/>
+      <c r="A120" s="1">
+        <v>1432</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="K121" s="6"/>
+      <c r="A121" s="1">
+        <v>1440</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="K122" s="6"/>
+      <c r="A122" s="1">
+        <v>1443</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="K123" s="6"/>
+      <c r="A123" s="1">
+        <v>1452</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="K124" s="6"/>
+      <c r="A124" s="1">
+        <v>1465</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="L124" s="6"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
+      <c r="A125" s="1">
+        <v>1520</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C125" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K125" s="6"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="K126" s="6"/>
+      <c r="A126" s="1">
+        <v>1536</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="K127" s="6"/>
+      <c r="A127" s="1">
+        <v>1547</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="K128" s="6"/>
+      <c r="A128" s="1">
+        <v>1572</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="K129" s="6"/>
+      <c r="A129" s="1">
+        <v>1592</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="K130" s="6"/>
+      <c r="A130" s="1">
+        <v>1608</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="K131" s="6"/>
+      <c r="A131" s="1">
+        <v>1634</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="K132" s="6"/>
+      <c r="A132" s="1">
+        <v>1638</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="K133" s="6"/>
+      <c r="A133" s="1">
+        <v>1650</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="K134" s="6"/>
+      <c r="A134" s="1">
+        <v>1663</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" s="6">
+        <f t="shared" ref="C134:C197" si="2">A135-A134</f>
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="K135" s="6"/>
+      <c r="A135" s="1">
+        <v>1666</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="6">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="K136" s="6"/>
+      <c r="A136" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="K137" s="6"/>
+      <c r="A137" s="1">
+        <v>1715</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="K138" s="6"/>
+      <c r="A138" s="1">
+        <v>1739</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="K139" s="6"/>
+      <c r="A139" s="1">
+        <v>1743</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="6">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="K140" s="6"/>
+      <c r="A140" s="6">
+        <v>1782</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="K141" s="6"/>
+      <c r="A141" s="1">
+        <v>1790</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="6">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="K142" s="6"/>
+      <c r="A142" s="1">
+        <v>1860</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="6">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="K143" s="6"/>
+      <c r="A143" s="1">
+        <v>1875</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="6">
+        <f>A144-A142</f>
+        <v>21</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="K144" s="6"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="K145" s="6"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146" s="6"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
+      <c r="A144" s="1">
+        <v>1881</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>1887</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="F146" s="12"/>
-      <c r="K146" s="6"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="K147" s="6"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="K148" s="6"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="K149" s="6"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="K150" s="6"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="K151" s="6"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="K152" s="6"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="K153" s="6"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="K154" s="6"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="6"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="K155" s="6"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="K156" s="6"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="K157" s="6"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="K158" s="6"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="K159" s="6"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="K160" s="6"/>
+      <c r="K146" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>1905</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="6">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L148" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="6">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" s="6">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>2072</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>2082</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>2093</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="6">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>2177</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="6">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L155" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>2248</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>2256</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="6">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>2270</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>2273</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="6">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>2301</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="6">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="K161" s="6"/>
+      <c r="A161" s="1">
+        <v>2340</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="K162" s="6"/>
+      <c r="A162" s="1">
+        <v>2350</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="K163" s="6"/>
+      <c r="A163" s="1">
+        <v>2355</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C163" s="6">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="L163" s="6"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="K164" s="6"/>
+      <c r="A164" s="1">
+        <v>2384</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="K165" s="6"/>
+      <c r="A165" s="1">
+        <v>2403</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="K166" s="6"/>
+      <c r="A166" s="1">
+        <v>2410</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="6">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="K167" s="6"/>
+      <c r="A167" s="1">
+        <v>2436</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="6">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="K168" s="6"/>
+      <c r="A168" s="1">
+        <v>2452</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="K169" s="6"/>
+      <c r="A169" s="1">
+        <v>2457</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="6"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6"/>
-      <c r="K170" s="6"/>
+      <c r="A170" s="1">
+        <v>2461</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="K171" s="6"/>
+      <c r="A171" s="1">
+        <v>2463</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="K172" s="6"/>
+      <c r="A172" s="1">
+        <v>2465</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="K173" s="6"/>
+      <c r="A173" s="1">
+        <v>2470</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C173" s="6">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
+      <c r="A174" s="1">
+        <v>2484</v>
+      </c>
+      <c r="B174" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="D174" s="6"/>
       <c r="K174" s="6"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="K175" s="6"/>
+      <c r="A175" s="1">
+        <v>2490</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C175" s="6">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6"/>
-      <c r="K176" s="6"/>
+      <c r="A176" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="K177" s="6"/>
+      <c r="A177" s="1">
+        <v>2519</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="K178" s="6"/>
+      <c r="A178" s="1">
+        <v>2524</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="K179" s="6"/>
+      <c r="A179" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="K180" s="6"/>
+      <c r="A180" s="1">
+        <v>2540</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="K181" s="6"/>
+      <c r="A181" s="1">
+        <v>2550</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="K182" s="6"/>
+      <c r="A182" s="1">
+        <v>2569</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C182" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6"/>
-      <c r="K183" s="6"/>
+      <c r="A183" s="1">
+        <v>2580</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="K184" s="6"/>
+      <c r="A184" s="1">
+        <v>2589</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
-      <c r="K185" s="6"/>
+      <c r="A185" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="6">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
-      <c r="K186" s="6"/>
+      <c r="A186" s="1">
+        <v>2615</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="6">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
-      <c r="K187" s="6"/>
+      <c r="A187" s="1">
+        <v>2646</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="6">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="6"/>
+      <c r="A188" s="1">
+        <v>2730</v>
+      </c>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="K188" s="6"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189" s="6"/>
+      <c r="A189" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -19561,8 +20597,8 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G119" sqref="F119:G120"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5BAAB3-DC52-4CC8-BB60-2D216570BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F889D9E7-6FD1-492F-B0FF-F2C64C996C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -1816,9 +1816,9 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12378,7 +12378,7 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="I170" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -14744,7 +14744,7 @@
       <c r="A125" s="1">
         <v>1520</v>
       </c>
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C125" s="6">
@@ -14908,7 +14908,7 @@
         <v>43</v>
       </c>
       <c r="C134" s="6">
-        <f t="shared" ref="C134:C197" si="2">A135-A134</f>
+        <f t="shared" ref="C134:C187" si="2">A135-A134</f>
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -15157,7 +15157,7 @@
       <c r="A148" s="1">
         <v>1940</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C148" s="6">
@@ -15632,7 +15632,7 @@
       <c r="A174" s="1">
         <v>2484</v>
       </c>
-      <c r="B174" s="33" t="s">
+      <c r="B174" s="31" t="s">
         <v>87</v>
       </c>
       <c r="C174" s="6">
@@ -17660,10 +17660,10 @@
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="31" t="s">
+      <c r="K55" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="L55" s="32"/>
+      <c r="L55" s="33"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
@@ -18954,10 +18954,10 @@
       <c r="H107" s="22"/>
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
-      <c r="K107" s="31" t="s">
+      <c r="K107" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="L107" s="32"/>
+      <c r="L107" s="33"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
@@ -19304,10 +19304,10 @@
       <c r="H121" s="22"/>
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
-      <c r="K121" s="31" t="s">
+      <c r="K121" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="L121" s="32"/>
+      <c r="L121" s="33"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
@@ -20597,8 +20597,8 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20636,7 +20636,9 @@
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -22336,10 +22338,10 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
-      <c r="K70" s="31" t="s">
+      <c r="K70" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="L70" s="32"/>
+      <c r="L70" s="33"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="21">

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F889D9E7-6FD1-492F-B0FF-F2C64C996C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6458C2-2CB1-4A73-95F5-96B8C8A8EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="527">
   <si>
     <t>D1</t>
   </si>
@@ -661,9 +661,6 @@
     <t>GOPR0903</t>
   </si>
   <si>
-    <t>trf</t>
-  </si>
-  <si>
     <t>GOPR0903-4</t>
   </si>
   <si>
@@ -908,9 +905,6 @@
   </si>
   <si>
     <t>GOPR0965</t>
-  </si>
-  <si>
-    <t>TURF</t>
   </si>
   <si>
     <t>GOPR0975</t>
@@ -5406,10 +5400,10 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A153" sqref="A153"/>
+      <selection pane="bottomRight" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8092,8 +8086,8 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="D145" s="6" t="s">
-        <v>206</v>
+      <c r="D145" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>205</v>
@@ -8133,7 +8127,7 @@
         <v>36</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -8151,7 +8145,7 @@
         <v>26</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -8167,7 +8161,7 @@
       </c>
       <c r="D149" s="6"/>
       <c r="K149" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -8185,7 +8179,7 @@
         <v>36</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -8203,7 +8197,7 @@
         <v>26</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -8805,11 +8799,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E148" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8944,7 +8938,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -8971,7 +8965,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8993,7 +8987,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -9015,7 +9009,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -9041,7 +9035,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -9066,7 +9060,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -9087,7 +9081,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -9107,7 +9101,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -9127,7 +9121,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -9148,7 +9142,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -9167,7 +9161,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -9188,7 +9182,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9206,7 +9200,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9225,7 +9219,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -9244,7 +9238,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -9263,7 +9257,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -9281,7 +9275,7 @@
         <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -9300,7 +9294,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -9319,7 +9313,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -9337,7 +9331,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -9356,7 +9350,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -9375,7 +9369,7 @@
         <v>36</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -9394,7 +9388,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -9413,7 +9407,7 @@
         <v>36</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -9431,7 +9425,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -9447,7 +9441,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -9465,7 +9459,7 @@
         <v>36</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -9483,7 +9477,7 @@
         <v>26</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -9501,7 +9495,7 @@
         <v>36</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -9519,7 +9513,7 @@
         <v>55</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9537,7 +9531,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -9555,7 +9549,7 @@
         <v>55</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L36" s="19" t="s">
         <v>65</v>
@@ -9576,7 +9570,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L37" s="19" t="s">
         <v>83</v>
@@ -9597,7 +9591,7 @@
         <v>21</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9615,7 +9609,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9633,7 +9627,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -9651,7 +9645,7 @@
         <v>21</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -9669,7 +9663,7 @@
         <v>36</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -9686,7 +9680,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -9704,7 +9698,7 @@
         <v>34</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -9723,7 +9717,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -9741,7 +9735,7 @@
         <v>36</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -9760,7 +9754,7 @@
         <v>26</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -9778,7 +9772,7 @@
         <v>21</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -9796,7 +9790,7 @@
         <v>36</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -9814,7 +9808,7 @@
         <v>25</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -9832,7 +9826,7 @@
         <v>21</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -9850,7 +9844,7 @@
         <v>26</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -9868,7 +9862,7 @@
         <v>21</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -9886,7 +9880,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -9904,7 +9898,7 @@
         <v>21</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -9922,7 +9916,7 @@
         <v>36</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9940,7 +9934,7 @@
         <v>21</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -9958,7 +9952,7 @@
         <v>26</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -9976,7 +9970,7 @@
         <v>36</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -9994,7 +9988,7 @@
         <v>26</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -10012,7 +10006,7 @@
         <v>21</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -10030,7 +10024,7 @@
         <v>36</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -10049,7 +10043,7 @@
         <v>21</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -10068,7 +10062,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -10087,7 +10081,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -10106,7 +10100,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -10124,7 +10118,7 @@
         <v>21</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -10142,7 +10136,7 @@
         <v>36</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -10161,7 +10155,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -10179,7 +10173,7 @@
         <v>36</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -10197,7 +10191,7 @@
         <v>26</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -10215,7 +10209,7 @@
         <v>36</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -10233,7 +10227,7 @@
         <v>26</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -10252,7 +10246,7 @@
         <v>36</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -10270,7 +10264,7 @@
         <v>26</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -10288,7 +10282,7 @@
         <v>36</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -10306,7 +10300,7 @@
         <v>26</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -10325,7 +10319,7 @@
         <v>21</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -10342,7 +10336,7 @@
       </c>
       <c r="D79" s="6"/>
       <c r="K79" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -10360,7 +10354,7 @@
         <v>22</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -10378,7 +10372,7 @@
         <v>36</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -10396,7 +10390,7 @@
         <v>26</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -10414,7 +10408,7 @@
         <v>36</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -10432,7 +10426,7 @@
         <v>26</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -10450,7 +10444,7 @@
         <v>36</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -10468,7 +10462,7 @@
         <v>26</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -10486,7 +10480,7 @@
         <v>36</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -10502,7 +10496,7 @@
       </c>
       <c r="D88" s="6"/>
       <c r="K88" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -10520,7 +10514,7 @@
         <v>36</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -10538,7 +10532,7 @@
         <v>21</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -10556,7 +10550,7 @@
         <v>36</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -10574,7 +10568,7 @@
         <v>26</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -10592,7 +10586,7 @@
         <v>36</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -10610,7 +10604,7 @@
         <v>34</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -10628,7 +10622,7 @@
         <v>36</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -10646,7 +10640,7 @@
         <v>34</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -10664,7 +10658,7 @@
         <v>36</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -10680,7 +10674,7 @@
       </c>
       <c r="D98" s="6"/>
       <c r="K98" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -10696,7 +10690,7 @@
       </c>
       <c r="D99" s="6"/>
       <c r="K99" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -10714,7 +10708,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -10732,7 +10726,7 @@
         <v>36</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -10750,7 +10744,7 @@
         <v>55</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -10768,7 +10762,7 @@
         <v>34</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -10786,7 +10780,7 @@
         <v>36</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -10802,7 +10796,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="K105" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -10820,7 +10814,7 @@
         <v>36</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -10838,7 +10832,7 @@
         <v>21</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -10856,7 +10850,7 @@
         <v>36</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -10872,7 +10866,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="K109" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -10889,7 +10883,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -10907,7 +10901,7 @@
         <v>36</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -10923,7 +10917,7 @@
       </c>
       <c r="D112" s="6"/>
       <c r="K112" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -10941,7 +10935,7 @@
         <v>21</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -10959,7 +10953,7 @@
         <v>36</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -10978,7 +10972,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -10994,7 +10988,7 @@
       </c>
       <c r="D116" s="6"/>
       <c r="K116" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -11012,7 +11006,7 @@
         <v>34</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -11031,7 +11025,7 @@
         <v>36</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -11049,7 +11043,7 @@
         <v>26</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -11067,7 +11061,7 @@
         <v>36</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -11083,7 +11077,7 @@
       </c>
       <c r="D121" s="6"/>
       <c r="K121" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -11101,7 +11095,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -11119,7 +11113,7 @@
         <v>26</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -11137,7 +11131,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -11156,7 +11150,7 @@
         <v>21</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -11174,7 +11168,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -11190,7 +11184,7 @@
       </c>
       <c r="D127" s="6"/>
       <c r="K127" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -11208,7 +11202,7 @@
         <v>36</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -11226,7 +11220,7 @@
         <v>21</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -11242,7 +11236,7 @@
       </c>
       <c r="D130" s="6"/>
       <c r="K130" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -11260,7 +11254,7 @@
         <v>36</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -11278,7 +11272,7 @@
         <v>21</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -11296,7 +11290,7 @@
         <v>36</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -11314,7 +11308,7 @@
         <v>34</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -11332,7 +11326,7 @@
         <v>36</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -11350,7 +11344,7 @@
         <v>34</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -11368,7 +11362,7 @@
         <v>36</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -11386,7 +11380,7 @@
         <v>55</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -11404,7 +11398,7 @@
         <v>36</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -11420,7 +11414,7 @@
       </c>
       <c r="D140" s="6"/>
       <c r="K140" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -11438,7 +11432,7 @@
         <v>36</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -11456,7 +11450,7 @@
         <v>26</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -11474,7 +11468,7 @@
         <v>36</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -11492,7 +11486,7 @@
         <v>21</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -11510,7 +11504,7 @@
         <v>36</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -11529,7 +11523,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -11547,7 +11541,7 @@
         <v>36</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -11565,7 +11559,7 @@
         <v>26</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -11583,7 +11577,7 @@
         <v>36</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -11599,7 +11593,7 @@
       </c>
       <c r="D150" s="6"/>
       <c r="K150" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -11617,7 +11611,7 @@
         <v>36</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -11633,7 +11627,7 @@
       </c>
       <c r="D152" s="6"/>
       <c r="K152" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -11651,7 +11645,7 @@
         <v>21</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -11669,7 +11663,7 @@
         <v>36</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -11685,7 +11679,7 @@
       </c>
       <c r="D155" s="6"/>
       <c r="K155" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -11703,7 +11697,7 @@
         <v>36</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -11721,7 +11715,7 @@
         <v>34</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -11739,7 +11733,7 @@
         <v>36</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -11757,7 +11751,7 @@
         <v>34</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -11775,7 +11769,7 @@
         <v>36</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -11793,7 +11787,7 @@
         <v>21</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -11811,7 +11805,7 @@
         <v>36</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -11827,7 +11821,7 @@
       </c>
       <c r="D163" s="6"/>
       <c r="K163" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -11846,7 +11840,7 @@
         <v>36</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -11864,7 +11858,7 @@
         <v>26</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -11878,11 +11872,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>289</v>
+      <c r="D166" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -12517,7 +12511,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -12544,7 +12538,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -12566,7 +12560,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -12586,7 +12580,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -12612,7 +12606,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -12635,7 +12629,7 @@
       <c r="D10" s="6"/>
       <c r="F10" s="12"/>
       <c r="K10" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -12656,7 +12650,7 @@
         <v>36</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -12676,7 +12670,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -12696,7 +12690,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -12717,7 +12711,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -12738,7 +12732,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -12759,7 +12753,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -12777,7 +12771,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -12794,7 +12788,7 @@
       <c r="D18" s="6"/>
       <c r="F18" s="12"/>
       <c r="K18" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -12813,7 +12807,7 @@
         <v>36</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -12830,7 +12824,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -12848,7 +12842,7 @@
         <v>36</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -12865,7 +12859,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -12884,7 +12878,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -12902,7 +12896,7 @@
         <v>34</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -12921,7 +12915,7 @@
         <v>36</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -12940,7 +12934,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -12957,7 +12951,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="K27" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -12976,7 +12970,7 @@
         <v>34</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -12994,7 +12988,7 @@
         <v>26</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13012,7 +13006,7 @@
         <v>36</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13030,10 +13024,10 @@
         <v>21</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13052,10 +13046,10 @@
       </c>
       <c r="F32" s="20"/>
       <c r="K32" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13073,10 +13067,10 @@
         <v>36</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13094,10 +13088,10 @@
         <v>26</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -13115,10 +13109,10 @@
         <v>21</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -13136,10 +13130,10 @@
         <v>21</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -13157,10 +13151,10 @@
         <v>36</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -13178,10 +13172,10 @@
         <v>21</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -13199,7 +13193,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -13217,7 +13211,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -13235,7 +13229,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -13253,7 +13247,7 @@
         <v>26</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -13272,7 +13266,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -13290,7 +13284,7 @@
         <v>34</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -13309,7 +13303,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -13327,7 +13321,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L46" s="17" t="s">
         <v>83</v>
@@ -13348,7 +13342,7 @@
         <v>21</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L47" s="17" t="s">
         <v>83</v>
@@ -13369,7 +13363,7 @@
         <v>36</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -13387,7 +13381,7 @@
         <v>21</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -13405,7 +13399,7 @@
         <v>36</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -13423,7 +13417,7 @@
         <v>34</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -13441,7 +13435,7 @@
         <v>36</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -13459,7 +13453,7 @@
         <v>26</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -13477,7 +13471,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -13495,7 +13489,7 @@
         <v>26</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -13511,7 +13505,7 @@
       </c>
       <c r="D56" s="6"/>
       <c r="K56" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -13529,7 +13523,7 @@
         <v>36</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -13545,7 +13539,7 @@
       </c>
       <c r="D58" s="6"/>
       <c r="K58" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -13563,7 +13557,7 @@
         <v>36</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -13581,7 +13575,7 @@
         <v>59</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -13597,7 +13591,7 @@
       </c>
       <c r="D61" s="6"/>
       <c r="K61" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -13613,7 +13607,7 @@
       </c>
       <c r="D62" s="6"/>
       <c r="K62" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -13632,7 +13626,7 @@
         <v>21</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -13651,7 +13645,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -13670,7 +13664,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -13689,7 +13683,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -13707,7 +13701,7 @@
         <v>26</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -13725,7 +13719,7 @@
         <v>36</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -13744,7 +13738,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -13762,7 +13756,7 @@
         <v>36</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -13780,7 +13774,7 @@
         <v>26</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -13798,7 +13792,7 @@
         <v>36</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -13816,7 +13810,7 @@
         <v>21</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -13835,7 +13829,7 @@
         <v>36</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -13851,7 +13845,7 @@
       </c>
       <c r="D75" s="6"/>
       <c r="K75" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -13869,7 +13863,7 @@
         <v>36</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -13887,7 +13881,7 @@
         <v>21</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -13906,7 +13900,7 @@
         <v>36</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -13925,7 +13919,7 @@
         <v>26</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -13941,7 +13935,7 @@
       </c>
       <c r="D80" s="6"/>
       <c r="K80" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -13959,7 +13953,7 @@
         <v>21</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -13977,7 +13971,7 @@
         <v>36</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -13995,7 +13989,7 @@
         <v>34</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -14013,7 +14007,7 @@
         <v>36</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -14031,7 +14025,7 @@
         <v>34</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -14049,7 +14043,7 @@
         <v>36</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -14067,7 +14061,7 @@
         <v>34</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -14085,7 +14079,7 @@
         <v>36</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -14103,7 +14097,7 @@
         <v>34</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -14121,7 +14115,7 @@
         <v>26</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -14139,7 +14133,7 @@
         <v>34</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -14157,7 +14151,7 @@
         <v>26</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -14175,7 +14169,7 @@
         <v>36</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -14193,7 +14187,7 @@
         <v>26</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -14211,7 +14205,7 @@
         <v>36</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -14229,7 +14223,7 @@
         <v>26</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -14247,7 +14241,7 @@
         <v>36</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -14265,7 +14259,7 @@
         <v>26</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -14283,7 +14277,7 @@
         <v>36</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -14301,7 +14295,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -14319,7 +14313,7 @@
         <v>26</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -14337,7 +14331,7 @@
         <v>36</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -14355,7 +14349,7 @@
         <v>21</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -14373,7 +14367,7 @@
         <v>26</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -14391,7 +14385,7 @@
         <v>36</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -14409,7 +14403,7 @@
         <v>26</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -14427,7 +14421,7 @@
         <v>36</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -14445,7 +14439,7 @@
         <v>26</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -14463,7 +14457,7 @@
         <v>36</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -14482,7 +14476,7 @@
         <v>26</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -14500,7 +14494,7 @@
         <v>36</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -14518,7 +14512,7 @@
         <v>34</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -14536,7 +14530,7 @@
         <v>36</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -14554,7 +14548,7 @@
         <v>26</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -14573,7 +14567,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -14591,7 +14585,7 @@
         <v>26</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -14609,7 +14603,7 @@
         <v>21</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -14628,7 +14622,7 @@
         <v>34</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -14646,7 +14640,7 @@
         <v>26</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -14664,7 +14658,7 @@
         <v>36</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -14682,7 +14676,7 @@
         <v>26</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -14700,7 +14694,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -14718,7 +14712,7 @@
         <v>26</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -14736,7 +14730,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -14771,7 +14765,7 @@
         <v>34</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -14789,7 +14783,7 @@
         <v>26</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -14807,7 +14801,7 @@
         <v>34</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -14825,7 +14819,7 @@
         <v>36</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -14843,7 +14837,7 @@
         <v>26</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -14861,7 +14855,7 @@
         <v>36</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -14879,7 +14873,7 @@
         <v>26</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -14897,7 +14891,7 @@
         <v>36</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -14915,7 +14909,7 @@
         <v>34</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -14933,7 +14927,7 @@
         <v>26</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -14951,7 +14945,7 @@
         <v>34</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -14969,7 +14963,7 @@
         <v>26</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -14987,7 +14981,7 @@
         <v>34</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -15005,7 +14999,7 @@
         <v>26</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -15023,7 +15017,7 @@
         <v>34</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -15041,7 +15035,7 @@
         <v>26</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -15059,7 +15053,7 @@
         <v>36</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -15077,7 +15071,7 @@
         <v>26</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -15095,7 +15089,7 @@
         <v>36</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -15113,7 +15107,7 @@
         <v>26</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -15132,7 +15126,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -15150,7 +15144,7 @@
         <v>26</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -15168,10 +15162,10 @@
         <v>34</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L148" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -15189,7 +15183,7 @@
         <v>26</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -15207,7 +15201,7 @@
         <v>21</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -15225,7 +15219,7 @@
         <v>34</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -15243,7 +15237,7 @@
         <v>36</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -15261,7 +15255,7 @@
         <v>34</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -15279,7 +15273,7 @@
         <v>36</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -15297,10 +15291,10 @@
         <v>59</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -15318,7 +15312,7 @@
         <v>26</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -15336,7 +15330,7 @@
         <v>36</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -15354,7 +15348,7 @@
         <v>26</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -15372,7 +15366,7 @@
         <v>21</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -15390,7 +15384,7 @@
         <v>36</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -15408,7 +15402,7 @@
         <v>34</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -15426,7 +15420,7 @@
         <v>36</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -15444,7 +15438,7 @@
         <v>34</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -15463,7 +15457,7 @@
         <v>26</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -15481,7 +15475,7 @@
         <v>36</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -15499,7 +15493,7 @@
         <v>26</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -15517,7 +15511,7 @@
         <v>36</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -15535,7 +15529,7 @@
         <v>26</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -15553,7 +15547,7 @@
         <v>36</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -15571,7 +15565,7 @@
         <v>26</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -15589,7 +15583,7 @@
         <v>36</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -15607,7 +15601,7 @@
         <v>26</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -15625,7 +15619,7 @@
         <v>34</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -15657,7 +15651,7 @@
         <v>34</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -15675,7 +15669,7 @@
         <v>36</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -15693,7 +15687,7 @@
         <v>26</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -15711,7 +15705,7 @@
         <v>36</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -15729,7 +15723,7 @@
         <v>26</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -15747,7 +15741,7 @@
         <v>36</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -15765,7 +15759,7 @@
         <v>26</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -15783,7 +15777,7 @@
         <v>34</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -15801,7 +15795,7 @@
         <v>36</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -15819,7 +15813,7 @@
         <v>26</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -15837,7 +15831,7 @@
         <v>36</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -15855,7 +15849,7 @@
         <v>26</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -15873,7 +15867,7 @@
         <v>36</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -16366,7 +16360,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="24"/>
       <c r="K5" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L5" s="22"/>
       <c r="O5" s="6"/>
@@ -16398,7 +16392,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L6" s="22"/>
       <c r="O6" s="6"/>
@@ -16425,7 +16419,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="24"/>
       <c r="K7" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L7" s="22"/>
       <c r="O7" s="6"/>
@@ -16452,7 +16446,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
       <c r="K8" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L8" s="22"/>
       <c r="O8" s="6"/>
@@ -16483,7 +16477,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
       <c r="K9" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L9" s="22"/>
       <c r="O9" s="6"/>
@@ -16514,7 +16508,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L10" s="25"/>
       <c r="O10" s="6"/>
@@ -16541,7 +16535,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L11" s="22"/>
       <c r="O11" s="6"/>
@@ -16568,7 +16562,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L12" s="22"/>
       <c r="O12" s="6"/>
@@ -16595,7 +16589,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L13" s="22"/>
       <c r="O13" s="6"/>
@@ -16622,7 +16616,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L14" s="22"/>
       <c r="O14" s="6"/>
@@ -16649,7 +16643,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L15" s="22"/>
       <c r="O15" s="6"/>
@@ -16676,7 +16670,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L16" s="22"/>
     </row>
@@ -16699,7 +16693,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L17" s="22"/>
     </row>
@@ -16724,7 +16718,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L18" s="25"/>
     </row>
@@ -16749,7 +16743,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -16774,7 +16768,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L20" s="22"/>
     </row>
@@ -16799,7 +16793,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L21" s="22"/>
     </row>
@@ -16824,7 +16818,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L22" s="22"/>
     </row>
@@ -16849,7 +16843,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L23" s="22"/>
     </row>
@@ -16874,7 +16868,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L24" s="22"/>
     </row>
@@ -16899,7 +16893,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L25" s="22"/>
     </row>
@@ -16924,7 +16918,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L26" s="22"/>
     </row>
@@ -16947,7 +16941,7 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L27" s="22"/>
     </row>
@@ -16972,7 +16966,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L28" s="22"/>
     </row>
@@ -16997,7 +16991,7 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L29" s="22"/>
     </row>
@@ -17022,7 +17016,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L30" s="22"/>
     </row>
@@ -17047,7 +17041,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L31" s="22"/>
     </row>
@@ -17072,7 +17066,7 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L32" s="22"/>
     </row>
@@ -17097,7 +17091,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L33" s="22"/>
     </row>
@@ -17122,7 +17116,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L34" s="22"/>
     </row>
@@ -17147,7 +17141,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L35" s="22"/>
     </row>
@@ -17172,7 +17166,7 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L36" s="22"/>
     </row>
@@ -17197,7 +17191,7 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L37" s="22"/>
     </row>
@@ -17222,7 +17216,7 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L38" s="22"/>
     </row>
@@ -17247,7 +17241,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L39" s="27" t="s">
         <v>83</v>
@@ -17274,7 +17268,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L40" s="27" t="s">
         <v>83</v>
@@ -17301,7 +17295,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L41" s="27" t="s">
         <v>83</v>
@@ -17328,7 +17322,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L42" s="27" t="s">
         <v>83</v>
@@ -17355,7 +17349,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L43" s="27" t="s">
         <v>83</v>
@@ -17382,7 +17376,7 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L44" s="22"/>
     </row>
@@ -17407,7 +17401,7 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L45" s="22"/>
     </row>
@@ -17432,7 +17426,7 @@
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L46" s="22"/>
     </row>
@@ -17457,7 +17451,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L47" s="27" t="s">
         <v>83</v>
@@ -17484,7 +17478,7 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L48" s="27" t="s">
         <v>83</v>
@@ -17511,7 +17505,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L49" s="22"/>
     </row>
@@ -17536,7 +17530,7 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L50" s="22"/>
     </row>
@@ -17561,7 +17555,7 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L51" s="22"/>
     </row>
@@ -17586,7 +17580,7 @@
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L52" s="22"/>
     </row>
@@ -17611,7 +17605,7 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L53" s="22"/>
     </row>
@@ -17636,7 +17630,7 @@
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L54" s="22"/>
     </row>
@@ -17661,7 +17655,7 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="32" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L55" s="33"/>
     </row>
@@ -17686,7 +17680,7 @@
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -17711,7 +17705,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L57" s="22"/>
     </row>
@@ -17736,7 +17730,7 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L58" s="22"/>
     </row>
@@ -17761,7 +17755,7 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L59" s="22"/>
     </row>
@@ -17786,7 +17780,7 @@
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L60" s="22"/>
     </row>
@@ -17811,7 +17805,7 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L61" s="22"/>
     </row>
@@ -17836,7 +17830,7 @@
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L62" s="22"/>
     </row>
@@ -17861,7 +17855,7 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L63" s="22"/>
     </row>
@@ -17886,7 +17880,7 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L64" s="25"/>
     </row>
@@ -17911,7 +17905,7 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L65" s="22"/>
     </row>
@@ -17936,7 +17930,7 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L66" s="22"/>
     </row>
@@ -17961,7 +17955,7 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L67" s="22"/>
     </row>
@@ -17986,7 +17980,7 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L68" s="22"/>
     </row>
@@ -18011,7 +18005,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L69" s="22"/>
     </row>
@@ -18034,7 +18028,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L70" s="22"/>
     </row>
@@ -18059,7 +18053,7 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L71" s="22"/>
     </row>
@@ -18084,7 +18078,7 @@
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L72" s="22"/>
     </row>
@@ -18109,7 +18103,7 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L73" s="22"/>
     </row>
@@ -18134,7 +18128,7 @@
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L74" s="22"/>
     </row>
@@ -18159,7 +18153,7 @@
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L75" s="22"/>
     </row>
@@ -18184,7 +18178,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L76" s="22"/>
     </row>
@@ -18209,7 +18203,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L77" s="22"/>
     </row>
@@ -18234,7 +18228,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L78" s="22"/>
     </row>
@@ -18259,7 +18253,7 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L79" s="22"/>
     </row>
@@ -18284,7 +18278,7 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L80" s="22"/>
     </row>
@@ -18307,7 +18301,7 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L81" s="22"/>
     </row>
@@ -18332,7 +18326,7 @@
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L82" s="22"/>
     </row>
@@ -18355,7 +18349,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L83" s="22"/>
     </row>
@@ -18380,7 +18374,7 @@
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L84" s="22"/>
     </row>
@@ -18405,7 +18399,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L85" s="22"/>
     </row>
@@ -18430,7 +18424,7 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L86" s="22"/>
     </row>
@@ -18455,7 +18449,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L87" s="22"/>
     </row>
@@ -18480,7 +18474,7 @@
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L88" s="22"/>
     </row>
@@ -18505,7 +18499,7 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L89" s="22"/>
     </row>
@@ -18530,7 +18524,7 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L90" s="22"/>
     </row>
@@ -18555,7 +18549,7 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L91" s="22"/>
     </row>
@@ -18580,7 +18574,7 @@
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L92" s="22"/>
     </row>
@@ -18605,7 +18599,7 @@
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L93" s="22"/>
     </row>
@@ -18630,7 +18624,7 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L94" s="22"/>
     </row>
@@ -18655,7 +18649,7 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L95" s="22"/>
     </row>
@@ -18680,7 +18674,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L96" s="22"/>
     </row>
@@ -18705,7 +18699,7 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L97" s="22"/>
     </row>
@@ -18730,7 +18724,7 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L98" s="22"/>
     </row>
@@ -18755,7 +18749,7 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L99" s="22"/>
     </row>
@@ -18780,7 +18774,7 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L100" s="22"/>
     </row>
@@ -18805,7 +18799,7 @@
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L101" s="22"/>
     </row>
@@ -18830,7 +18824,7 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L102" s="22"/>
     </row>
@@ -18855,7 +18849,7 @@
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L103" s="22"/>
     </row>
@@ -18880,7 +18874,7 @@
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L104" s="22"/>
     </row>
@@ -18905,7 +18899,7 @@
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L105" s="22"/>
     </row>
@@ -18930,7 +18924,7 @@
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L106" s="22"/>
     </row>
@@ -18955,7 +18949,7 @@
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
       <c r="K107" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L107" s="33"/>
     </row>
@@ -18980,7 +18974,7 @@
       <c r="I108" s="22"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L108" s="22"/>
     </row>
@@ -19005,7 +18999,7 @@
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L109" s="22"/>
     </row>
@@ -19030,7 +19024,7 @@
       <c r="I110" s="22"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L110" s="22"/>
     </row>
@@ -19055,7 +19049,7 @@
       <c r="I111" s="22"/>
       <c r="J111" s="22"/>
       <c r="K111" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L111" s="22"/>
     </row>
@@ -19080,7 +19074,7 @@
       <c r="I112" s="22"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L112" s="22"/>
     </row>
@@ -19105,7 +19099,7 @@
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L113" s="22"/>
     </row>
@@ -19130,7 +19124,7 @@
       <c r="I114" s="22"/>
       <c r="J114" s="22"/>
       <c r="K114" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L114" s="22"/>
     </row>
@@ -19155,7 +19149,7 @@
       <c r="I115" s="22"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="L115" s="22"/>
     </row>
@@ -19180,7 +19174,7 @@
       <c r="I116" s="22"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L116" s="22"/>
     </row>
@@ -19205,7 +19199,7 @@
       <c r="I117" s="22"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L117" s="22"/>
     </row>
@@ -19230,7 +19224,7 @@
       <c r="I118" s="22"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L118" s="22"/>
     </row>
@@ -19255,7 +19249,7 @@
       <c r="I119" s="22"/>
       <c r="J119" s="22"/>
       <c r="K119" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L119" s="22"/>
     </row>
@@ -19280,7 +19274,7 @@
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L120" s="22"/>
     </row>
@@ -19305,7 +19299,7 @@
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
       <c r="K121" s="32" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L121" s="33"/>
     </row>
@@ -19314,7 +19308,7 @@
         <v>2092</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C122" s="22">
         <f t="shared" si="1"/>
@@ -19330,7 +19324,7 @@
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L122" s="22"/>
     </row>
@@ -19355,7 +19349,7 @@
       <c r="I123" s="22"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L123" s="22"/>
     </row>
@@ -19380,7 +19374,7 @@
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L124" s="22"/>
     </row>
@@ -19405,7 +19399,7 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L125" s="22"/>
     </row>
@@ -19430,7 +19424,7 @@
       <c r="I126" s="22"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L126" s="22"/>
     </row>
@@ -19455,7 +19449,7 @@
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L127" s="22"/>
     </row>
@@ -19480,7 +19474,7 @@
       <c r="I128" s="22"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L128" s="22"/>
     </row>
@@ -19489,7 +19483,7 @@
         <v>2221</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C129" s="22">
         <f t="shared" si="1"/>
@@ -19503,7 +19497,7 @@
       <c r="I129" s="22"/>
       <c r="J129" s="22"/>
       <c r="K129" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L129" s="22"/>
     </row>
@@ -19528,7 +19522,7 @@
       <c r="I130" s="22"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L130" s="22"/>
     </row>
@@ -19537,7 +19531,7 @@
         <v>2241</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C131" s="22">
         <f t="shared" si="1"/>
@@ -19551,7 +19545,7 @@
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L131" s="22"/>
     </row>
@@ -19576,7 +19570,7 @@
       <c r="I132" s="22"/>
       <c r="J132" s="22"/>
       <c r="K132" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L132" s="22"/>
     </row>
@@ -19601,7 +19595,7 @@
       <c r="I133" s="22"/>
       <c r="J133" s="22"/>
       <c r="K133" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L133" s="22"/>
     </row>
@@ -19626,7 +19620,7 @@
       <c r="I134" s="22"/>
       <c r="J134" s="22"/>
       <c r="K134" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L134" s="22"/>
     </row>
@@ -19635,7 +19629,7 @@
         <v>2333</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C135" s="22">
         <f t="shared" si="2"/>
@@ -19649,7 +19643,7 @@
       <c r="I135" s="22"/>
       <c r="J135" s="22"/>
       <c r="K135" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L135" s="22"/>
     </row>
@@ -19674,7 +19668,7 @@
       <c r="I136" s="22"/>
       <c r="J136" s="22"/>
       <c r="K136" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L136" s="22"/>
     </row>
@@ -19699,7 +19693,7 @@
       <c r="I137" s="22"/>
       <c r="J137" s="22"/>
       <c r="K137" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L137" s="22"/>
     </row>
@@ -19724,7 +19718,7 @@
       <c r="I138" s="22"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L138" s="22"/>
     </row>
@@ -19749,7 +19743,7 @@
       <c r="I139" s="22"/>
       <c r="J139" s="22"/>
       <c r="K139" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L139" s="22"/>
     </row>
@@ -19774,7 +19768,7 @@
       <c r="I140" s="22"/>
       <c r="J140" s="22"/>
       <c r="K140" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L140" s="22"/>
     </row>
@@ -19783,7 +19777,7 @@
         <v>2404</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C141" s="22">
         <f t="shared" si="2"/>
@@ -19797,7 +19791,7 @@
       <c r="I141" s="22"/>
       <c r="J141" s="22"/>
       <c r="K141" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L141" s="22"/>
     </row>
@@ -19822,7 +19816,7 @@
       <c r="I142" s="22"/>
       <c r="J142" s="22"/>
       <c r="K142" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L142" s="22"/>
     </row>
@@ -19847,7 +19841,7 @@
       <c r="I143" s="22"/>
       <c r="J143" s="22"/>
       <c r="K143" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L143" s="22"/>
     </row>
@@ -19872,7 +19866,7 @@
       <c r="I144" s="22"/>
       <c r="J144" s="22"/>
       <c r="K144" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L144" s="22"/>
     </row>
@@ -19897,7 +19891,7 @@
       <c r="I145" s="22"/>
       <c r="J145" s="22"/>
       <c r="K145" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L145" s="22"/>
     </row>
@@ -19920,7 +19914,7 @@
       <c r="I146" s="22"/>
       <c r="J146" s="22"/>
       <c r="K146" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L146" s="22"/>
     </row>
@@ -19945,7 +19939,7 @@
       <c r="I147" s="22"/>
       <c r="J147" s="22"/>
       <c r="K147" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L147" s="22"/>
     </row>
@@ -19954,7 +19948,7 @@
         <v>2550</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C148" s="22">
         <f t="shared" si="2"/>
@@ -19968,7 +19962,7 @@
       <c r="I148" s="22"/>
       <c r="J148" s="22"/>
       <c r="K148" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L148" s="22"/>
     </row>
@@ -20597,8 +20591,8 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20735,7 +20729,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="24"/>
       <c r="K5" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L5" s="22"/>
       <c r="O5" s="6"/>
@@ -20765,7 +20759,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L6" s="22"/>
       <c r="O6" s="6"/>
@@ -20792,7 +20786,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L7" s="25"/>
       <c r="O7" s="6"/>
@@ -20819,7 +20813,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L8" s="22"/>
       <c r="O8" s="6"/>
@@ -20850,7 +20844,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L9" s="22"/>
       <c r="O9" s="6"/>
@@ -20881,7 +20875,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L10" s="22"/>
       <c r="O10" s="6"/>
@@ -20908,7 +20902,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L11" s="22"/>
       <c r="O11" s="6"/>
@@ -20935,7 +20929,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L12" s="22"/>
       <c r="O12" s="6"/>
@@ -20962,7 +20956,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L13" s="22"/>
       <c r="O13" s="6"/>
@@ -20989,7 +20983,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L14" s="22"/>
       <c r="O14" s="6"/>
@@ -21016,7 +21010,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L15" s="25"/>
       <c r="O15" s="6"/>
@@ -21043,7 +21037,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L16" s="22"/>
     </row>
@@ -21068,7 +21062,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L17" s="22"/>
     </row>
@@ -21093,7 +21087,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L18" s="22"/>
     </row>
@@ -21118,7 +21112,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -21127,7 +21121,7 @@
         <v>385</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" si="0"/>
@@ -21141,7 +21135,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L20" s="22"/>
     </row>
@@ -21166,7 +21160,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L21" s="22"/>
     </row>
@@ -21191,7 +21185,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L22" s="22"/>
     </row>
@@ -21216,7 +21210,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L23" s="22"/>
     </row>
@@ -21225,7 +21219,7 @@
         <v>467</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C24" s="22">
         <f t="shared" si="0"/>
@@ -21239,7 +21233,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L24" s="22"/>
     </row>
@@ -21264,10 +21258,10 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -21291,7 +21285,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L26" s="22"/>
     </row>
@@ -21300,7 +21294,7 @@
         <v>518</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C27" s="22">
         <f t="shared" si="0"/>
@@ -21314,7 +21308,7 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L27" s="22"/>
     </row>
@@ -21339,7 +21333,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L28" s="22"/>
     </row>
@@ -21348,7 +21342,7 @@
         <v>531</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C29" s="22">
         <f t="shared" si="0"/>
@@ -21362,7 +21356,7 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L29" s="22"/>
     </row>
@@ -21385,7 +21379,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L30" s="22"/>
     </row>
@@ -21394,7 +21388,7 @@
         <v>568</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C31" s="22">
         <f t="shared" si="0"/>
@@ -21408,7 +21402,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L31" s="22"/>
     </row>
@@ -21433,7 +21427,7 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L32" s="22"/>
     </row>
@@ -21458,7 +21452,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L33" s="22"/>
     </row>
@@ -21467,7 +21461,7 @@
         <v>630</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C34" s="22">
         <f t="shared" si="0"/>
@@ -21481,7 +21475,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L34" s="22"/>
     </row>
@@ -21490,7 +21484,7 @@
         <v>810</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C35" s="22">
         <f t="shared" si="0"/>
@@ -21504,7 +21498,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="L35" s="22"/>
     </row>
@@ -21513,7 +21507,7 @@
         <v>822</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C36" s="22">
         <f t="shared" si="0"/>
@@ -21527,7 +21521,7 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L36" s="22"/>
     </row>
@@ -21552,7 +21546,7 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L37" s="22"/>
     </row>
@@ -21561,7 +21555,7 @@
         <v>837</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C38" s="22">
         <f t="shared" si="0"/>
@@ -21575,7 +21569,7 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L38" s="22"/>
     </row>
@@ -21600,7 +21594,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L39" s="22"/>
     </row>
@@ -21625,7 +21619,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L40" s="22"/>
     </row>
@@ -21650,7 +21644,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L41" s="22"/>
     </row>
@@ -21659,7 +21653,7 @@
         <v>899</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C42" s="22">
         <f t="shared" si="0"/>
@@ -21673,7 +21667,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L42" s="22"/>
     </row>
@@ -21698,7 +21692,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L43" s="22"/>
     </row>
@@ -21723,10 +21717,10 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -21750,7 +21744,7 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L45" s="22"/>
     </row>
@@ -21775,7 +21769,7 @@
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L46" s="22"/>
     </row>
@@ -21800,7 +21794,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L47" s="22"/>
     </row>
@@ -21825,7 +21819,7 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L48" s="22"/>
     </row>
@@ -21834,7 +21828,7 @@
         <v>1071</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C49" s="22">
         <f t="shared" si="0"/>
@@ -21848,7 +21842,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L49" s="22"/>
     </row>
@@ -21873,7 +21867,7 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L50" s="22"/>
     </row>
@@ -21882,7 +21876,7 @@
         <v>1083</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C51" s="22">
         <f t="shared" si="0"/>
@@ -21896,7 +21890,7 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L51" s="22"/>
     </row>
@@ -21905,7 +21899,7 @@
         <v>1100</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C52" s="22">
         <f t="shared" si="0"/>
@@ -21919,7 +21913,7 @@
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L52" s="22"/>
     </row>
@@ -21944,7 +21938,7 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L53" s="22"/>
     </row>
@@ -21953,7 +21947,7 @@
         <v>1148</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C54" s="22">
         <f t="shared" si="0"/>
@@ -21967,7 +21961,7 @@
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L54" s="22"/>
     </row>
@@ -21992,7 +21986,7 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L55" s="22"/>
     </row>
@@ -22001,7 +21995,7 @@
         <v>1182</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C56" s="22">
         <f t="shared" si="0"/>
@@ -22015,7 +22009,7 @@
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -22040,7 +22034,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="L57" s="22"/>
     </row>
@@ -22049,7 +22043,7 @@
         <v>1191</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C58" s="22">
         <f t="shared" si="0"/>
@@ -22063,7 +22057,7 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L58" s="22"/>
     </row>
@@ -22072,7 +22066,7 @@
         <v>1220</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C59" s="22">
         <f t="shared" si="0"/>
@@ -22086,7 +22080,7 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L59" s="22"/>
     </row>
@@ -22095,7 +22089,7 @@
         <v>1235</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C60" s="22">
         <f t="shared" si="0"/>
@@ -22109,7 +22103,7 @@
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L60" s="22"/>
     </row>
@@ -22132,7 +22126,7 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L61" s="22"/>
     </row>
@@ -22141,7 +22135,7 @@
         <v>1248</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C62" s="22">
         <f t="shared" si="0"/>
@@ -22155,7 +22149,7 @@
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L62" s="25"/>
     </row>
@@ -22164,7 +22158,7 @@
         <v>1253</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C63" s="22">
         <f t="shared" si="0"/>
@@ -22178,7 +22172,7 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L63" s="22"/>
     </row>
@@ -22201,7 +22195,7 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L64" s="22"/>
     </row>
@@ -22224,7 +22218,7 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L65" s="22"/>
     </row>
@@ -22233,7 +22227,7 @@
         <v>1285</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C66" s="22">
         <f t="shared" si="0"/>
@@ -22247,7 +22241,7 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L66" s="22"/>
     </row>
@@ -22270,7 +22264,7 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L67" s="22"/>
     </row>
@@ -22279,7 +22273,7 @@
         <v>1293</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C68" s="22">
         <f t="shared" si="0"/>
@@ -22293,7 +22287,7 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L68" s="22"/>
     </row>
@@ -22316,7 +22310,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L69" s="22"/>
     </row>
@@ -22325,7 +22319,7 @@
         <v>1332</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C70" s="22">
         <f t="shared" ref="C70:C127" si="1">A71-A70</f>
@@ -22339,7 +22333,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L70" s="33"/>
     </row>
@@ -22364,7 +22358,7 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L71" s="22"/>
     </row>
@@ -22373,7 +22367,7 @@
         <v>1423</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C72" s="22">
         <f t="shared" si="1"/>
@@ -22387,7 +22381,7 @@
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L72" s="22"/>
     </row>
@@ -22412,7 +22406,7 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L73" s="22"/>
     </row>
@@ -22437,7 +22431,7 @@
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L74" s="22"/>
     </row>
@@ -22462,7 +22456,7 @@
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L75" s="22"/>
     </row>
@@ -22485,7 +22479,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L76" s="22"/>
     </row>
@@ -22510,7 +22504,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L77" s="22"/>
     </row>
@@ -22535,7 +22529,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L78" s="22"/>
     </row>
@@ -22560,10 +22554,10 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L79" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -22587,7 +22581,7 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L80" s="22"/>
     </row>
@@ -22596,7 +22590,7 @@
         <v>1605</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C81" s="22">
         <f t="shared" si="1"/>
@@ -22610,7 +22604,7 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L81" s="22"/>
     </row>
@@ -22635,7 +22629,7 @@
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L82" s="22"/>
     </row>
@@ -22660,7 +22654,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L83" s="22"/>
     </row>
@@ -22685,7 +22679,7 @@
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L84" s="22"/>
     </row>
@@ -22694,7 +22688,7 @@
         <v>1745</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C85" s="22">
         <f t="shared" si="1"/>
@@ -22708,7 +22702,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L85" s="22"/>
     </row>
@@ -22733,7 +22727,7 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L86" s="22"/>
     </row>
@@ -22758,7 +22752,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L87" s="22"/>
     </row>
@@ -22767,7 +22761,7 @@
         <v>1784</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C88" s="22">
         <f t="shared" si="1"/>
@@ -22781,7 +22775,7 @@
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L88" s="22"/>
     </row>
@@ -22806,7 +22800,7 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L89" s="22"/>
     </row>
@@ -22829,7 +22823,7 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L90" s="22"/>
     </row>
@@ -22854,7 +22848,7 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L91" s="22"/>
     </row>
@@ -22877,7 +22871,7 @@
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L92" s="22"/>
     </row>
@@ -22902,7 +22896,7 @@
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L93" s="22"/>
     </row>
@@ -22925,7 +22919,7 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L94" s="22"/>
     </row>
@@ -22950,7 +22944,7 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L95" s="22"/>
     </row>
@@ -22975,7 +22969,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L96" s="22"/>
     </row>
@@ -22998,7 +22992,7 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L97" s="22"/>
     </row>
@@ -23023,7 +23017,7 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L98" s="22"/>
     </row>
@@ -23048,7 +23042,7 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L99" s="22"/>
     </row>
@@ -23073,7 +23067,7 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L100" s="22"/>
     </row>
@@ -23098,7 +23092,7 @@
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L101" s="22"/>
     </row>
@@ -23123,7 +23117,7 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L102" s="22"/>
     </row>
@@ -23148,7 +23142,7 @@
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L103" s="22"/>
     </row>
@@ -23173,7 +23167,7 @@
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L104" s="22"/>
     </row>
@@ -23198,7 +23192,7 @@
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L105" s="22"/>
     </row>
@@ -23223,10 +23217,10 @@
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L106" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -23250,10 +23244,10 @@
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L107" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -23277,10 +23271,10 @@
       <c r="I108" s="22"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L108" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -23304,7 +23298,7 @@
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L109" s="22"/>
     </row>
@@ -23329,7 +23323,7 @@
       <c r="I110" s="22"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L110" s="22"/>
     </row>
@@ -23354,7 +23348,7 @@
       <c r="I111" s="22"/>
       <c r="J111" s="22"/>
       <c r="K111" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L111" s="22"/>
     </row>
@@ -23379,7 +23373,7 @@
       <c r="I112" s="22"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L112" s="22"/>
     </row>
@@ -23404,7 +23398,7 @@
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L113" s="22"/>
     </row>
@@ -23429,7 +23423,7 @@
       <c r="I114" s="22"/>
       <c r="J114" s="22"/>
       <c r="K114" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L114" s="22"/>
     </row>
@@ -23454,7 +23448,7 @@
       <c r="I115" s="22"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L115" s="22"/>
     </row>
@@ -23479,7 +23473,7 @@
       <c r="I116" s="22"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L116" s="22"/>
     </row>
@@ -23504,7 +23498,7 @@
       <c r="I117" s="22"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L117" s="22"/>
     </row>
@@ -23529,7 +23523,7 @@
       <c r="I118" s="22"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L118" s="22"/>
     </row>
@@ -23575,7 +23569,7 @@
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L120" s="22"/>
     </row>
@@ -23600,7 +23594,7 @@
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
       <c r="K121" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L121" s="22"/>
     </row>
@@ -23625,7 +23619,7 @@
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L122" s="22"/>
     </row>
@@ -23650,7 +23644,7 @@
       <c r="I123" s="22"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L123" s="22"/>
     </row>
@@ -23675,7 +23669,7 @@
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L124" s="22"/>
     </row>
@@ -23700,7 +23694,7 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L125" s="22"/>
     </row>
@@ -23725,7 +23719,7 @@
       <c r="I126" s="22"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L126" s="22"/>
     </row>
@@ -23750,7 +23744,7 @@
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L127" s="22"/>
     </row>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6458C2-2CB1-4A73-95F5-96B8C8A8EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBC8BD-3E16-4916-8A40-43F1A6CC6BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="S2" sheetId="6" r:id="rId5"/>
     <sheet name="S3" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$151</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="526">
   <si>
     <t>D1</t>
   </si>
@@ -365,9 +368,6 @@
   </si>
   <si>
     <t>GOPR0836-7</t>
-  </si>
-  <si>
-    <t>enc</t>
   </si>
   <si>
     <t>GOPR0837</t>
@@ -2038,11 +2038,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C150"/>
+      <selection pane="bottomRight" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>2175</v>
       </c>
@@ -4342,11 +4342,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K125" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="K125" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -4364,7 +4364,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="D127" s="6"/>
       <c r="K127" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
         <v>21</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -4416,7 +4416,7 @@
         <v>21</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -4434,7 +4434,7 @@
         <v>36</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -4452,7 +4452,7 @@
         <v>21</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>36</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -4488,7 +4488,7 @@
         <v>21</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -4506,7 +4506,7 @@
         <v>36</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="D135" s="6"/>
       <c r="K135" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -4540,7 +4540,7 @@
         <v>36</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="D137" s="6"/>
       <c r="K137" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -4574,7 +4574,7 @@
         <v>36</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -4592,7 +4592,7 @@
         <v>21</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -4610,7 +4610,7 @@
         <v>36</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -4628,7 +4628,7 @@
         <v>21</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -4646,7 +4646,7 @@
         <v>26</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="D143" s="6"/>
       <c r="K143" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -4680,7 +4680,7 @@
         <v>36</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -4698,7 +4698,7 @@
         <v>34</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -4735,7 +4735,7 @@
         <v>34</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>36</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -4771,7 +4771,7 @@
         <v>34</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
         <v>36</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -4797,7 +4797,7 @@
         <v>2592</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -5119,161 +5119,161 @@
       <c r="D196" s="6"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="K201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="K202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="K203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="K205" s="6"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="K206" s="6"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="K211" s="6"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="K213" s="6"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="K216" s="6"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="K218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5281,113 +5281,114 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U151" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5538,7 +5539,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -5565,7 +5566,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -5587,7 +5588,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -5609,7 +5610,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -5635,7 +5636,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -5658,7 +5659,7 @@
       <c r="D10" s="6"/>
       <c r="F10" s="12"/>
       <c r="K10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -5679,7 +5680,7 @@
         <v>36</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -5699,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -5719,7 +5720,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -5740,7 +5741,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -5761,7 +5762,7 @@
         <v>22</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -5782,7 +5783,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -5800,7 +5801,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -5819,7 +5820,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -5838,7 +5839,7 @@
         <v>26</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -5857,7 +5858,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -5875,7 +5876,7 @@
         <v>34</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -5894,7 +5895,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -5913,7 +5914,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -5931,7 +5932,7 @@
         <v>36</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -5950,7 +5951,7 @@
         <v>34</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -5969,7 +5970,7 @@
         <v>36</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -5988,7 +5989,7 @@
         <v>34</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -6007,7 +6008,7 @@
         <v>36</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -6025,7 +6026,7 @@
         <v>34</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -6043,7 +6044,7 @@
         <v>36</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -6059,7 +6060,7 @@
       </c>
       <c r="D31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -6077,7 +6078,7 @@
         <v>36</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -6095,7 +6096,7 @@
         <v>34</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -6113,7 +6114,7 @@
         <v>36</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -6131,7 +6132,7 @@
         <v>21</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -6149,7 +6150,7 @@
         <v>36</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -6167,7 +6168,7 @@
         <v>21</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -6185,7 +6186,7 @@
         <v>26</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -6203,7 +6204,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -6221,7 +6222,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -6239,7 +6240,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -6257,7 +6258,7 @@
         <v>26</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -6276,7 +6277,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -6294,7 +6295,7 @@
         <v>26</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -6313,7 +6314,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -6331,7 +6332,7 @@
         <v>26</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -6350,7 +6351,7 @@
         <v>36</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -6368,7 +6369,7 @@
         <v>21</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -6386,7 +6387,7 @@
         <v>36</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6402,7 +6403,7 @@
       </c>
       <c r="D50" s="6"/>
       <c r="K50" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6420,7 +6421,7 @@
         <v>21</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -6438,7 +6439,7 @@
         <v>36</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6456,7 +6457,7 @@
         <v>21</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -6474,7 +6475,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -6492,7 +6493,7 @@
         <v>21</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -6510,7 +6511,7 @@
         <v>34</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6528,7 +6529,7 @@
         <v>36</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6544,7 +6545,7 @@
       </c>
       <c r="D58" s="6"/>
       <c r="K58" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6562,7 +6563,7 @@
         <v>36</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6580,7 +6581,7 @@
         <v>26</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -6598,7 +6599,7 @@
         <v>36</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -6616,7 +6617,7 @@
         <v>26</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -6635,7 +6636,7 @@
         <v>36</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6654,7 +6655,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6673,7 +6674,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -6692,7 +6693,7 @@
         <v>22</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6710,7 +6711,7 @@
         <v>36</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6728,7 +6729,7 @@
         <v>26</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6747,7 +6748,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6765,7 +6766,7 @@
         <v>26</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6783,7 +6784,7 @@
         <v>36</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6801,7 +6802,7 @@
         <v>21</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6819,7 +6820,7 @@
         <v>36</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -6838,7 +6839,7 @@
         <v>21</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6856,7 +6857,7 @@
         <v>36</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6872,7 +6873,7 @@
       </c>
       <c r="D76" s="6"/>
       <c r="K76" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6888,7 +6889,7 @@
       </c>
       <c r="D77" s="6"/>
       <c r="K77" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -6907,7 +6908,7 @@
         <v>36</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -6926,7 +6927,7 @@
         <v>21</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6944,7 +6945,7 @@
         <v>36</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -6960,7 +6961,7 @@
       </c>
       <c r="D81" s="6"/>
       <c r="K81" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -6978,7 +6979,7 @@
         <v>21</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -6996,7 +6997,7 @@
         <v>55</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -7014,7 +7015,7 @@
         <v>36</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -7030,7 +7031,7 @@
       </c>
       <c r="D85" s="6"/>
       <c r="K85" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -7048,7 +7049,7 @@
         <v>36</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -7066,7 +7067,7 @@
         <v>21</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -7084,7 +7085,7 @@
         <v>36</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -7102,7 +7103,7 @@
         <v>26</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -7120,7 +7121,7 @@
         <v>36</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -7136,7 +7137,7 @@
       </c>
       <c r="D91" s="6"/>
       <c r="K91" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -7154,7 +7155,7 @@
         <v>36</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -7172,7 +7173,7 @@
         <v>26</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -7190,7 +7191,7 @@
         <v>36</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -7208,7 +7209,7 @@
         <v>34</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -7226,7 +7227,7 @@
         <v>36</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -7242,7 +7243,7 @@
       </c>
       <c r="D97" s="6"/>
       <c r="K97" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -7260,7 +7261,7 @@
         <v>36</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -7278,7 +7279,7 @@
         <v>21</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -7296,7 +7297,7 @@
         <v>36</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -7314,7 +7315,7 @@
         <v>34</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -7332,7 +7333,7 @@
         <v>36</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -7350,7 +7351,7 @@
         <v>34</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -7368,7 +7369,7 @@
         <v>26</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -7386,7 +7387,7 @@
         <v>36</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -7402,7 +7403,7 @@
       </c>
       <c r="D106" s="6"/>
       <c r="K106" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -7418,7 +7419,7 @@
       </c>
       <c r="D107" s="6"/>
       <c r="K107" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -7436,7 +7437,7 @@
         <v>36</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -7452,7 +7453,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="K109" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -7471,7 +7472,7 @@
         <v>36</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -7489,7 +7490,7 @@
         <v>21</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -7507,7 +7508,7 @@
         <v>36</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7525,7 +7526,7 @@
         <v>21</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7543,7 +7544,7 @@
         <v>36</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7562,7 +7563,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7580,7 +7581,7 @@
         <v>36</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7598,7 +7599,7 @@
         <v>34</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -7617,7 +7618,7 @@
         <v>36</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7635,7 +7636,7 @@
         <v>34</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7653,7 +7654,7 @@
         <v>21</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7671,7 +7672,7 @@
         <v>55</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7689,7 +7690,7 @@
         <v>55</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7707,7 +7708,7 @@
         <v>36</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7725,7 +7726,7 @@
         <v>34</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -7744,7 +7745,7 @@
         <v>34</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -7762,7 +7763,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -7780,7 +7781,7 @@
         <v>34</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -7798,7 +7799,7 @@
         <v>36</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -7816,7 +7817,7 @@
         <v>55</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -7834,7 +7835,7 @@
         <v>36</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -7852,7 +7853,7 @@
         <v>21</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -7870,7 +7871,7 @@
         <v>21</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -7902,7 +7903,7 @@
         <v>26</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -7920,7 +7921,7 @@
         <v>36</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -7936,7 +7937,7 @@
       </c>
       <c r="D136" s="6"/>
       <c r="K136" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -7952,7 +7953,7 @@
       </c>
       <c r="D137" s="6"/>
       <c r="K137" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -7970,7 +7971,7 @@
         <v>55</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -7986,7 +7987,7 @@
       </c>
       <c r="D139" s="6"/>
       <c r="K139" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -8004,7 +8005,7 @@
         <v>34</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -8020,7 +8021,7 @@
       </c>
       <c r="D141" s="6"/>
       <c r="K141" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -8036,7 +8037,7 @@
       </c>
       <c r="D142" s="6"/>
       <c r="K142" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -8054,7 +8055,7 @@
         <v>36</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -8072,7 +8073,7 @@
         <v>26</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -8090,7 +8091,7 @@
         <v>36</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -8109,7 +8110,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -8127,7 +8128,7 @@
         <v>36</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -8145,7 +8146,7 @@
         <v>26</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -8161,7 +8162,7 @@
       </c>
       <c r="D149" s="6"/>
       <c r="K149" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -8179,7 +8180,7 @@
         <v>36</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -8197,7 +8198,7 @@
         <v>26</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -8210,7 +8211,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -8799,7 +8800,7 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -8938,7 +8939,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -8965,7 +8966,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -8987,7 +8988,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -9009,7 +9010,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -9035,7 +9036,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -9060,7 +9061,7 @@
       </c>
       <c r="F10" s="12"/>
       <c r="K10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -9081,7 +9082,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -9101,7 +9102,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -9121,7 +9122,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -9142,7 +9143,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -9161,7 +9162,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -9182,7 +9183,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -9200,7 +9201,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -9219,7 +9220,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="K18" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -9238,7 +9239,7 @@
         <v>21</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -9257,7 +9258,7 @@
         <v>36</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -9275,7 +9276,7 @@
         <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -9294,7 +9295,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -9313,7 +9314,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -9331,7 +9332,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -9350,7 +9351,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -9369,7 +9370,7 @@
         <v>36</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -9388,7 +9389,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -9407,7 +9408,7 @@
         <v>36</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -9425,7 +9426,7 @@
         <v>21</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -9441,7 +9442,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -9459,7 +9460,7 @@
         <v>36</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -9477,7 +9478,7 @@
         <v>26</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -9495,7 +9496,7 @@
         <v>36</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -9513,7 +9514,7 @@
         <v>55</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9531,7 +9532,7 @@
         <v>36</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -9549,7 +9550,7 @@
         <v>55</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L36" s="19" t="s">
         <v>65</v>
@@ -9570,7 +9571,7 @@
         <v>36</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L37" s="19" t="s">
         <v>83</v>
@@ -9591,7 +9592,7 @@
         <v>21</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9609,7 +9610,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9627,7 +9628,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -9645,7 +9646,7 @@
         <v>21</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -9663,7 +9664,7 @@
         <v>36</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -9680,7 +9681,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -9698,7 +9699,7 @@
         <v>34</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -9717,7 +9718,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -9735,7 +9736,7 @@
         <v>36</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L46" s="6"/>
     </row>
@@ -9754,7 +9755,7 @@
         <v>26</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -9772,7 +9773,7 @@
         <v>21</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -9790,7 +9791,7 @@
         <v>36</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -9808,7 +9809,7 @@
         <v>25</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -9826,7 +9827,7 @@
         <v>21</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -9844,7 +9845,7 @@
         <v>26</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -9862,7 +9863,7 @@
         <v>21</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -9880,7 +9881,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -9898,7 +9899,7 @@
         <v>21</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -9916,7 +9917,7 @@
         <v>36</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -9934,7 +9935,7 @@
         <v>21</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -9952,7 +9953,7 @@
         <v>26</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -9970,7 +9971,7 @@
         <v>36</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -9988,7 +9989,7 @@
         <v>26</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -10006,7 +10007,7 @@
         <v>21</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -10024,7 +10025,7 @@
         <v>36</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -10043,7 +10044,7 @@
         <v>21</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -10062,7 +10063,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -10081,7 +10082,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -10100,7 +10101,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -10118,7 +10119,7 @@
         <v>21</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -10136,7 +10137,7 @@
         <v>36</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -10155,7 +10156,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -10173,7 +10174,7 @@
         <v>36</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -10191,7 +10192,7 @@
         <v>26</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -10209,7 +10210,7 @@
         <v>36</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -10227,7 +10228,7 @@
         <v>26</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -10246,7 +10247,7 @@
         <v>36</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -10264,7 +10265,7 @@
         <v>26</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -10282,7 +10283,7 @@
         <v>36</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -10300,7 +10301,7 @@
         <v>26</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -10319,7 +10320,7 @@
         <v>21</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -10336,7 +10337,7 @@
       </c>
       <c r="D79" s="6"/>
       <c r="K79" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -10354,7 +10355,7 @@
         <v>22</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -10372,7 +10373,7 @@
         <v>36</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -10390,7 +10391,7 @@
         <v>26</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -10408,7 +10409,7 @@
         <v>36</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -10426,7 +10427,7 @@
         <v>26</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -10444,7 +10445,7 @@
         <v>36</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -10462,7 +10463,7 @@
         <v>26</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -10480,7 +10481,7 @@
         <v>36</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -10496,7 +10497,7 @@
       </c>
       <c r="D88" s="6"/>
       <c r="K88" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -10514,7 +10515,7 @@
         <v>36</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -10532,7 +10533,7 @@
         <v>21</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -10550,7 +10551,7 @@
         <v>36</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -10568,7 +10569,7 @@
         <v>26</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -10586,7 +10587,7 @@
         <v>36</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -10604,7 +10605,7 @@
         <v>34</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -10622,7 +10623,7 @@
         <v>36</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -10640,7 +10641,7 @@
         <v>34</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -10658,7 +10659,7 @@
         <v>36</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -10674,7 +10675,7 @@
       </c>
       <c r="D98" s="6"/>
       <c r="K98" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -10690,7 +10691,7 @@
       </c>
       <c r="D99" s="6"/>
       <c r="K99" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -10708,7 +10709,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -10726,7 +10727,7 @@
         <v>36</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -10744,7 +10745,7 @@
         <v>55</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -10762,7 +10763,7 @@
         <v>34</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -10780,7 +10781,7 @@
         <v>36</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -10796,7 +10797,7 @@
       </c>
       <c r="D105" s="6"/>
       <c r="K105" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -10814,7 +10815,7 @@
         <v>36</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -10832,7 +10833,7 @@
         <v>21</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -10850,7 +10851,7 @@
         <v>36</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -10866,7 +10867,7 @@
       </c>
       <c r="D109" s="6"/>
       <c r="K109" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -10883,7 +10884,7 @@
       </c>
       <c r="D110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -10901,7 +10902,7 @@
         <v>36</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -10917,7 +10918,7 @@
       </c>
       <c r="D112" s="6"/>
       <c r="K112" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -10935,7 +10936,7 @@
         <v>21</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -10953,7 +10954,7 @@
         <v>36</v>
       </c>
       <c r="K114" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -10972,7 +10973,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -10988,7 +10989,7 @@
       </c>
       <c r="D116" s="6"/>
       <c r="K116" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -11006,7 +11007,7 @@
         <v>34</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -11025,7 +11026,7 @@
         <v>36</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -11043,7 +11044,7 @@
         <v>26</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -11061,7 +11062,7 @@
         <v>36</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -11077,7 +11078,7 @@
       </c>
       <c r="D121" s="6"/>
       <c r="K121" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -11095,7 +11096,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -11113,7 +11114,7 @@
         <v>26</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -11131,7 +11132,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -11150,7 +11151,7 @@
         <v>21</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -11168,7 +11169,7 @@
         <v>36</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -11184,7 +11185,7 @@
       </c>
       <c r="D127" s="6"/>
       <c r="K127" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -11202,7 +11203,7 @@
         <v>36</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -11220,7 +11221,7 @@
         <v>21</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -11236,7 +11237,7 @@
       </c>
       <c r="D130" s="6"/>
       <c r="K130" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -11254,7 +11255,7 @@
         <v>36</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -11272,7 +11273,7 @@
         <v>21</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -11290,7 +11291,7 @@
         <v>36</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -11308,7 +11309,7 @@
         <v>34</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -11326,7 +11327,7 @@
         <v>36</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -11344,7 +11345,7 @@
         <v>34</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -11362,7 +11363,7 @@
         <v>36</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -11380,7 +11381,7 @@
         <v>55</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -11398,7 +11399,7 @@
         <v>36</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -11414,7 +11415,7 @@
       </c>
       <c r="D140" s="6"/>
       <c r="K140" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -11432,7 +11433,7 @@
         <v>36</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -11450,7 +11451,7 @@
         <v>26</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -11468,7 +11469,7 @@
         <v>36</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -11486,7 +11487,7 @@
         <v>21</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -11504,7 +11505,7 @@
         <v>36</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -11523,7 +11524,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -11541,7 +11542,7 @@
         <v>36</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -11559,7 +11560,7 @@
         <v>26</v>
       </c>
       <c r="K148" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -11577,7 +11578,7 @@
         <v>36</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -11593,7 +11594,7 @@
       </c>
       <c r="D150" s="6"/>
       <c r="K150" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -11611,7 +11612,7 @@
         <v>36</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -11627,7 +11628,7 @@
       </c>
       <c r="D152" s="6"/>
       <c r="K152" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -11645,7 +11646,7 @@
         <v>21</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -11663,7 +11664,7 @@
         <v>36</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -11679,7 +11680,7 @@
       </c>
       <c r="D155" s="6"/>
       <c r="K155" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -11697,7 +11698,7 @@
         <v>36</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -11715,7 +11716,7 @@
         <v>34</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -11733,7 +11734,7 @@
         <v>36</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -11751,7 +11752,7 @@
         <v>34</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -11769,7 +11770,7 @@
         <v>36</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -11787,7 +11788,7 @@
         <v>21</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -11805,7 +11806,7 @@
         <v>36</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -11821,7 +11822,7 @@
       </c>
       <c r="D163" s="6"/>
       <c r="K163" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -11840,7 +11841,7 @@
         <v>36</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -11858,7 +11859,7 @@
         <v>26</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -11876,7 +11877,7 @@
         <v>36</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -11889,7 +11890,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -12511,7 +12512,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -12538,7 +12539,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -12560,7 +12561,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -12580,7 +12581,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
       <c r="K8" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -12606,7 +12607,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
       <c r="K9" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -12629,7 +12630,7 @@
       <c r="D10" s="6"/>
       <c r="F10" s="12"/>
       <c r="K10" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L10" s="12"/>
       <c r="O10" s="6"/>
@@ -12650,7 +12651,7 @@
         <v>36</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -12670,7 +12671,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -12690,7 +12691,7 @@
         <v>36</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L13" s="6"/>
       <c r="O13" s="6"/>
@@ -12711,7 +12712,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L14" s="6"/>
       <c r="O14" s="6"/>
@@ -12732,7 +12733,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -12753,7 +12754,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="K16" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -12771,7 +12772,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -12788,7 +12789,7 @@
       <c r="D18" s="6"/>
       <c r="F18" s="12"/>
       <c r="K18" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -12807,7 +12808,7 @@
         <v>36</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L19" s="6"/>
     </row>
@@ -12824,7 +12825,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -12842,7 +12843,7 @@
         <v>36</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -12859,7 +12860,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -12878,7 +12879,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -12896,7 +12897,7 @@
         <v>34</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -12915,7 +12916,7 @@
         <v>36</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -12934,7 +12935,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -12951,7 +12952,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="K27" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -12970,7 +12971,7 @@
         <v>34</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -12988,7 +12989,7 @@
         <v>26</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13006,7 +13007,7 @@
         <v>36</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13024,10 +13025,10 @@
         <v>21</v>
       </c>
       <c r="K31" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="L31" s="17" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13046,10 +13047,10 @@
       </c>
       <c r="F32" s="20"/>
       <c r="K32" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -13067,10 +13068,10 @@
         <v>36</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -13088,10 +13089,10 @@
         <v>26</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L34" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -13109,10 +13110,10 @@
         <v>21</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -13130,10 +13131,10 @@
         <v>21</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -13151,10 +13152,10 @@
         <v>36</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L37" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -13172,10 +13173,10 @@
         <v>21</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L38" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -13193,7 +13194,7 @@
         <v>36</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -13211,7 +13212,7 @@
         <v>26</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -13229,7 +13230,7 @@
         <v>36</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -13247,7 +13248,7 @@
         <v>26</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -13266,7 +13267,7 @@
         <v>36</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -13284,7 +13285,7 @@
         <v>34</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -13303,7 +13304,7 @@
       </c>
       <c r="F45" s="12"/>
       <c r="K45" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -13321,7 +13322,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L46" s="17" t="s">
         <v>83</v>
@@ -13342,7 +13343,7 @@
         <v>21</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L47" s="17" t="s">
         <v>83</v>
@@ -13363,7 +13364,7 @@
         <v>36</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -13381,7 +13382,7 @@
         <v>21</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -13399,7 +13400,7 @@
         <v>36</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -13417,7 +13418,7 @@
         <v>34</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -13435,7 +13436,7 @@
         <v>36</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -13453,7 +13454,7 @@
         <v>26</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -13471,7 +13472,7 @@
         <v>36</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -13489,7 +13490,7 @@
         <v>26</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -13505,7 +13506,7 @@
       </c>
       <c r="D56" s="6"/>
       <c r="K56" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -13523,7 +13524,7 @@
         <v>36</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -13539,7 +13540,7 @@
       </c>
       <c r="D58" s="6"/>
       <c r="K58" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -13557,7 +13558,7 @@
         <v>36</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -13575,7 +13576,7 @@
         <v>59</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -13591,7 +13592,7 @@
       </c>
       <c r="D61" s="6"/>
       <c r="K61" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -13607,7 +13608,7 @@
       </c>
       <c r="D62" s="6"/>
       <c r="K62" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L62" s="1"/>
     </row>
@@ -13626,7 +13627,7 @@
         <v>21</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -13645,7 +13646,7 @@
       </c>
       <c r="E64" s="6"/>
       <c r="K64" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -13664,7 +13665,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="K65" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L65" s="12"/>
     </row>
@@ -13683,7 +13684,7 @@
         <v>36</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -13701,7 +13702,7 @@
         <v>26</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -13719,7 +13720,7 @@
         <v>36</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -13738,7 +13739,7 @@
       </c>
       <c r="F69" s="12"/>
       <c r="K69" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -13756,7 +13757,7 @@
         <v>36</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -13774,7 +13775,7 @@
         <v>26</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -13792,7 +13793,7 @@
         <v>36</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -13810,7 +13811,7 @@
         <v>21</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L73" s="6"/>
     </row>
@@ -13829,7 +13830,7 @@
         <v>36</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -13845,7 +13846,7 @@
       </c>
       <c r="D75" s="6"/>
       <c r="K75" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -13863,7 +13864,7 @@
         <v>36</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -13881,7 +13882,7 @@
         <v>21</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L77" s="6"/>
     </row>
@@ -13900,7 +13901,7 @@
         <v>36</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -13919,7 +13920,7 @@
         <v>26</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -13935,7 +13936,7 @@
       </c>
       <c r="D80" s="6"/>
       <c r="K80" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -13953,7 +13954,7 @@
         <v>21</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -13971,7 +13972,7 @@
         <v>36</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -13989,7 +13990,7 @@
         <v>34</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -14007,7 +14008,7 @@
         <v>36</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -14025,7 +14026,7 @@
         <v>34</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -14043,7 +14044,7 @@
         <v>36</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -14061,7 +14062,7 @@
         <v>34</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -14079,7 +14080,7 @@
         <v>36</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -14097,7 +14098,7 @@
         <v>34</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -14115,7 +14116,7 @@
         <v>26</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -14133,7 +14134,7 @@
         <v>34</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -14151,7 +14152,7 @@
         <v>26</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -14169,7 +14170,7 @@
         <v>36</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -14187,7 +14188,7 @@
         <v>26</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -14205,7 +14206,7 @@
         <v>36</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -14223,7 +14224,7 @@
         <v>26</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -14241,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -14259,7 +14260,7 @@
         <v>26</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -14277,7 +14278,7 @@
         <v>36</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -14295,7 +14296,7 @@
         <v>21</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -14313,7 +14314,7 @@
         <v>26</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -14331,7 +14332,7 @@
         <v>36</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -14349,7 +14350,7 @@
         <v>21</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -14367,7 +14368,7 @@
         <v>26</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -14385,7 +14386,7 @@
         <v>36</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -14403,7 +14404,7 @@
         <v>26</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -14421,7 +14422,7 @@
         <v>36</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -14439,7 +14440,7 @@
         <v>26</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -14457,7 +14458,7 @@
         <v>36</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L109" s="6"/>
     </row>
@@ -14476,7 +14477,7 @@
         <v>26</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -14494,7 +14495,7 @@
         <v>36</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -14512,7 +14513,7 @@
         <v>34</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -14530,7 +14531,7 @@
         <v>36</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -14548,7 +14549,7 @@
         <v>26</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -14567,7 +14568,7 @@
       </c>
       <c r="E115" s="6"/>
       <c r="K115" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -14585,7 +14586,7 @@
         <v>26</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -14603,7 +14604,7 @@
         <v>21</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L117" s="6"/>
     </row>
@@ -14622,7 +14623,7 @@
         <v>34</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -14640,7 +14641,7 @@
         <v>26</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -14658,7 +14659,7 @@
         <v>36</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -14676,7 +14677,7 @@
         <v>26</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -14694,7 +14695,7 @@
         <v>36</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -14712,7 +14713,7 @@
         <v>26</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -14730,7 +14731,7 @@
         <v>36</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L124" s="6"/>
     </row>
@@ -14765,7 +14766,7 @@
         <v>34</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -14783,7 +14784,7 @@
         <v>26</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -14801,7 +14802,7 @@
         <v>34</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -14819,7 +14820,7 @@
         <v>36</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -14837,7 +14838,7 @@
         <v>26</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -14855,7 +14856,7 @@
         <v>36</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -14873,7 +14874,7 @@
         <v>26</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -14891,7 +14892,7 @@
         <v>36</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -14909,7 +14910,7 @@
         <v>34</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -14927,7 +14928,7 @@
         <v>26</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -14945,7 +14946,7 @@
         <v>34</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -14963,7 +14964,7 @@
         <v>26</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -14981,7 +14982,7 @@
         <v>34</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -14999,7 +15000,7 @@
         <v>26</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -15017,7 +15018,7 @@
         <v>34</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -15035,7 +15036,7 @@
         <v>26</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -15053,7 +15054,7 @@
         <v>36</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -15071,7 +15072,7 @@
         <v>26</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -15089,7 +15090,7 @@
         <v>36</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -15107,7 +15108,7 @@
         <v>26</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F146" s="12"/>
       <c r="K146" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -15144,7 +15145,7 @@
         <v>26</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -15162,10 +15163,10 @@
         <v>34</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -15183,7 +15184,7 @@
         <v>26</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -15201,7 +15202,7 @@
         <v>21</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -15219,7 +15220,7 @@
         <v>34</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -15237,7 +15238,7 @@
         <v>36</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -15255,7 +15256,7 @@
         <v>34</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -15273,7 +15274,7 @@
         <v>36</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -15291,10 +15292,10 @@
         <v>59</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L155" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -15312,7 +15313,7 @@
         <v>26</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -15330,7 +15331,7 @@
         <v>36</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -15348,7 +15349,7 @@
         <v>26</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -15366,7 +15367,7 @@
         <v>21</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -15384,7 +15385,7 @@
         <v>36</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -15402,7 +15403,7 @@
         <v>34</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -15420,7 +15421,7 @@
         <v>36</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -15438,7 +15439,7 @@
         <v>34</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L163" s="6"/>
     </row>
@@ -15457,7 +15458,7 @@
         <v>26</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -15475,7 +15476,7 @@
         <v>36</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -15493,7 +15494,7 @@
         <v>26</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -15511,7 +15512,7 @@
         <v>36</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -15529,7 +15530,7 @@
         <v>26</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -15547,7 +15548,7 @@
         <v>36</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -15565,7 +15566,7 @@
         <v>26</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -15583,7 +15584,7 @@
         <v>36</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -15601,7 +15602,7 @@
         <v>26</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -15619,7 +15620,7 @@
         <v>34</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -15651,7 +15652,7 @@
         <v>34</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -15669,7 +15670,7 @@
         <v>36</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -15687,7 +15688,7 @@
         <v>26</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -15705,7 +15706,7 @@
         <v>36</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -15723,7 +15724,7 @@
         <v>26</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -15741,7 +15742,7 @@
         <v>36</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -15759,7 +15760,7 @@
         <v>26</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -15777,7 +15778,7 @@
         <v>34</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -15795,7 +15796,7 @@
         <v>36</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -15813,7 +15814,7 @@
         <v>26</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -15831,7 +15832,7 @@
         <v>36</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -15849,7 +15850,7 @@
         <v>26</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -15867,7 +15868,7 @@
         <v>36</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -15881,7 +15882,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -16360,7 +16361,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="24"/>
       <c r="K5" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L5" s="22"/>
       <c r="O5" s="6"/>
@@ -16392,7 +16393,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L6" s="22"/>
       <c r="O6" s="6"/>
@@ -16419,7 +16420,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="24"/>
       <c r="K7" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L7" s="22"/>
       <c r="O7" s="6"/>
@@ -16446,7 +16447,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
       <c r="K8" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L8" s="22"/>
       <c r="O8" s="6"/>
@@ -16477,7 +16478,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
       <c r="K9" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L9" s="22"/>
       <c r="O9" s="6"/>
@@ -16508,7 +16509,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L10" s="25"/>
       <c r="O10" s="6"/>
@@ -16535,7 +16536,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L11" s="22"/>
       <c r="O11" s="6"/>
@@ -16562,7 +16563,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L12" s="22"/>
       <c r="O12" s="6"/>
@@ -16589,7 +16590,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L13" s="22"/>
       <c r="O13" s="6"/>
@@ -16616,7 +16617,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L14" s="22"/>
       <c r="O14" s="6"/>
@@ -16643,7 +16644,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L15" s="22"/>
       <c r="O15" s="6"/>
@@ -16670,7 +16671,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L16" s="22"/>
     </row>
@@ -16693,7 +16694,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L17" s="22"/>
     </row>
@@ -16718,7 +16719,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L18" s="25"/>
     </row>
@@ -16743,7 +16744,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -16768,7 +16769,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L20" s="22"/>
     </row>
@@ -16793,7 +16794,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L21" s="22"/>
     </row>
@@ -16818,7 +16819,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L22" s="22"/>
     </row>
@@ -16843,7 +16844,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L23" s="22"/>
     </row>
@@ -16868,7 +16869,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L24" s="22"/>
     </row>
@@ -16893,7 +16894,7 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L25" s="22"/>
     </row>
@@ -16918,7 +16919,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L26" s="22"/>
     </row>
@@ -16941,7 +16942,7 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L27" s="22"/>
     </row>
@@ -16966,7 +16967,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L28" s="22"/>
     </row>
@@ -16991,7 +16992,7 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L29" s="22"/>
     </row>
@@ -17016,7 +17017,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L30" s="22"/>
     </row>
@@ -17041,7 +17042,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L31" s="22"/>
     </row>
@@ -17066,7 +17067,7 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L32" s="22"/>
     </row>
@@ -17091,7 +17092,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L33" s="22"/>
     </row>
@@ -17116,7 +17117,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L34" s="22"/>
     </row>
@@ -17141,7 +17142,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L35" s="22"/>
     </row>
@@ -17166,7 +17167,7 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L36" s="22"/>
     </row>
@@ -17191,7 +17192,7 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L37" s="22"/>
     </row>
@@ -17216,7 +17217,7 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L38" s="22"/>
     </row>
@@ -17241,7 +17242,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L39" s="27" t="s">
         <v>83</v>
@@ -17268,7 +17269,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L40" s="27" t="s">
         <v>83</v>
@@ -17295,7 +17296,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L41" s="27" t="s">
         <v>83</v>
@@ -17322,7 +17323,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L42" s="27" t="s">
         <v>83</v>
@@ -17349,7 +17350,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L43" s="27" t="s">
         <v>83</v>
@@ -17376,7 +17377,7 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L44" s="22"/>
     </row>
@@ -17401,7 +17402,7 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L45" s="22"/>
     </row>
@@ -17426,7 +17427,7 @@
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L46" s="22"/>
     </row>
@@ -17451,7 +17452,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L47" s="27" t="s">
         <v>83</v>
@@ -17478,7 +17479,7 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L48" s="27" t="s">
         <v>83</v>
@@ -17505,7 +17506,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L49" s="22"/>
     </row>
@@ -17530,7 +17531,7 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L50" s="22"/>
     </row>
@@ -17555,7 +17556,7 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L51" s="22"/>
     </row>
@@ -17580,7 +17581,7 @@
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L52" s="22"/>
     </row>
@@ -17605,7 +17606,7 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L53" s="22"/>
     </row>
@@ -17630,7 +17631,7 @@
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L54" s="22"/>
     </row>
@@ -17655,7 +17656,7 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L55" s="33"/>
     </row>
@@ -17680,7 +17681,7 @@
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -17705,7 +17706,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L57" s="22"/>
     </row>
@@ -17730,7 +17731,7 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L58" s="22"/>
     </row>
@@ -17755,7 +17756,7 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L59" s="22"/>
     </row>
@@ -17780,7 +17781,7 @@
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L60" s="22"/>
     </row>
@@ -17805,7 +17806,7 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L61" s="22"/>
     </row>
@@ -17830,7 +17831,7 @@
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L62" s="22"/>
     </row>
@@ -17855,7 +17856,7 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L63" s="22"/>
     </row>
@@ -17880,7 +17881,7 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L64" s="25"/>
     </row>
@@ -17905,7 +17906,7 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L65" s="22"/>
     </row>
@@ -17930,7 +17931,7 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L66" s="22"/>
     </row>
@@ -17955,7 +17956,7 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L67" s="22"/>
     </row>
@@ -17980,7 +17981,7 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L68" s="22"/>
     </row>
@@ -18005,7 +18006,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L69" s="22"/>
     </row>
@@ -18028,7 +18029,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L70" s="22"/>
     </row>
@@ -18053,7 +18054,7 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L71" s="22"/>
     </row>
@@ -18078,7 +18079,7 @@
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L72" s="22"/>
     </row>
@@ -18103,7 +18104,7 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L73" s="22"/>
     </row>
@@ -18128,7 +18129,7 @@
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L74" s="22"/>
     </row>
@@ -18153,7 +18154,7 @@
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L75" s="22"/>
     </row>
@@ -18178,7 +18179,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L76" s="22"/>
     </row>
@@ -18203,7 +18204,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L77" s="22"/>
     </row>
@@ -18228,7 +18229,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L78" s="22"/>
     </row>
@@ -18253,7 +18254,7 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L79" s="22"/>
     </row>
@@ -18278,7 +18279,7 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L80" s="22"/>
     </row>
@@ -18301,7 +18302,7 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L81" s="22"/>
     </row>
@@ -18326,7 +18327,7 @@
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L82" s="22"/>
     </row>
@@ -18349,7 +18350,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L83" s="22"/>
     </row>
@@ -18374,7 +18375,7 @@
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L84" s="22"/>
     </row>
@@ -18399,7 +18400,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L85" s="22"/>
     </row>
@@ -18424,7 +18425,7 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L86" s="22"/>
     </row>
@@ -18449,7 +18450,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L87" s="22"/>
     </row>
@@ -18474,7 +18475,7 @@
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L88" s="22"/>
     </row>
@@ -18499,7 +18500,7 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L89" s="22"/>
     </row>
@@ -18524,7 +18525,7 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L90" s="22"/>
     </row>
@@ -18549,7 +18550,7 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L91" s="22"/>
     </row>
@@ -18574,7 +18575,7 @@
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L92" s="22"/>
     </row>
@@ -18599,7 +18600,7 @@
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L93" s="22"/>
     </row>
@@ -18624,7 +18625,7 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L94" s="22"/>
     </row>
@@ -18649,7 +18650,7 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L95" s="22"/>
     </row>
@@ -18674,7 +18675,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L96" s="22"/>
     </row>
@@ -18699,7 +18700,7 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L97" s="22"/>
     </row>
@@ -18724,7 +18725,7 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L98" s="22"/>
     </row>
@@ -18749,7 +18750,7 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L99" s="22"/>
     </row>
@@ -18774,7 +18775,7 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L100" s="22"/>
     </row>
@@ -18799,7 +18800,7 @@
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L101" s="22"/>
     </row>
@@ -18824,7 +18825,7 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L102" s="22"/>
     </row>
@@ -18849,7 +18850,7 @@
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L103" s="22"/>
     </row>
@@ -18874,7 +18875,7 @@
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L104" s="22"/>
     </row>
@@ -18899,7 +18900,7 @@
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L105" s="22"/>
     </row>
@@ -18924,7 +18925,7 @@
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L106" s="22"/>
     </row>
@@ -18949,7 +18950,7 @@
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
       <c r="K107" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L107" s="33"/>
     </row>
@@ -18974,7 +18975,7 @@
       <c r="I108" s="22"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L108" s="22"/>
     </row>
@@ -18999,7 +19000,7 @@
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L109" s="22"/>
     </row>
@@ -19024,7 +19025,7 @@
       <c r="I110" s="22"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L110" s="22"/>
     </row>
@@ -19049,7 +19050,7 @@
       <c r="I111" s="22"/>
       <c r="J111" s="22"/>
       <c r="K111" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L111" s="22"/>
     </row>
@@ -19074,7 +19075,7 @@
       <c r="I112" s="22"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L112" s="22"/>
     </row>
@@ -19099,7 +19100,7 @@
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L113" s="22"/>
     </row>
@@ -19124,7 +19125,7 @@
       <c r="I114" s="22"/>
       <c r="J114" s="22"/>
       <c r="K114" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L114" s="22"/>
     </row>
@@ -19149,7 +19150,7 @@
       <c r="I115" s="22"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L115" s="22"/>
     </row>
@@ -19174,7 +19175,7 @@
       <c r="I116" s="22"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L116" s="22"/>
     </row>
@@ -19199,7 +19200,7 @@
       <c r="I117" s="22"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L117" s="22"/>
     </row>
@@ -19224,7 +19225,7 @@
       <c r="I118" s="22"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L118" s="22"/>
     </row>
@@ -19249,7 +19250,7 @@
       <c r="I119" s="22"/>
       <c r="J119" s="22"/>
       <c r="K119" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L119" s="22"/>
     </row>
@@ -19274,7 +19275,7 @@
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L120" s="22"/>
     </row>
@@ -19299,7 +19300,7 @@
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
       <c r="K121" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L121" s="33"/>
     </row>
@@ -19308,7 +19309,7 @@
         <v>2092</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C122" s="22">
         <f t="shared" si="1"/>
@@ -19324,7 +19325,7 @@
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L122" s="22"/>
     </row>
@@ -19349,7 +19350,7 @@
       <c r="I123" s="22"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L123" s="22"/>
     </row>
@@ -19374,7 +19375,7 @@
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L124" s="22"/>
     </row>
@@ -19399,7 +19400,7 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L125" s="22"/>
     </row>
@@ -19424,7 +19425,7 @@
       <c r="I126" s="22"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L126" s="22"/>
     </row>
@@ -19449,7 +19450,7 @@
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L127" s="22"/>
     </row>
@@ -19474,7 +19475,7 @@
       <c r="I128" s="22"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L128" s="22"/>
     </row>
@@ -19483,7 +19484,7 @@
         <v>2221</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C129" s="22">
         <f t="shared" si="1"/>
@@ -19497,7 +19498,7 @@
       <c r="I129" s="22"/>
       <c r="J129" s="22"/>
       <c r="K129" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L129" s="22"/>
     </row>
@@ -19522,7 +19523,7 @@
       <c r="I130" s="22"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L130" s="22"/>
     </row>
@@ -19531,7 +19532,7 @@
         <v>2241</v>
       </c>
       <c r="B131" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C131" s="22">
         <f t="shared" si="1"/>
@@ -19545,7 +19546,7 @@
       <c r="I131" s="22"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L131" s="22"/>
     </row>
@@ -19570,7 +19571,7 @@
       <c r="I132" s="22"/>
       <c r="J132" s="22"/>
       <c r="K132" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L132" s="22"/>
     </row>
@@ -19595,7 +19596,7 @@
       <c r="I133" s="22"/>
       <c r="J133" s="22"/>
       <c r="K133" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L133" s="22"/>
     </row>
@@ -19620,7 +19621,7 @@
       <c r="I134" s="22"/>
       <c r="J134" s="22"/>
       <c r="K134" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L134" s="22"/>
     </row>
@@ -19629,7 +19630,7 @@
         <v>2333</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C135" s="22">
         <f t="shared" si="2"/>
@@ -19643,7 +19644,7 @@
       <c r="I135" s="22"/>
       <c r="J135" s="22"/>
       <c r="K135" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L135" s="22"/>
     </row>
@@ -19668,7 +19669,7 @@
       <c r="I136" s="22"/>
       <c r="J136" s="22"/>
       <c r="K136" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L136" s="22"/>
     </row>
@@ -19693,7 +19694,7 @@
       <c r="I137" s="22"/>
       <c r="J137" s="22"/>
       <c r="K137" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L137" s="22"/>
     </row>
@@ -19718,7 +19719,7 @@
       <c r="I138" s="22"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L138" s="22"/>
     </row>
@@ -19743,7 +19744,7 @@
       <c r="I139" s="22"/>
       <c r="J139" s="22"/>
       <c r="K139" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L139" s="22"/>
     </row>
@@ -19768,7 +19769,7 @@
       <c r="I140" s="22"/>
       <c r="J140" s="22"/>
       <c r="K140" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L140" s="22"/>
     </row>
@@ -19777,7 +19778,7 @@
         <v>2404</v>
       </c>
       <c r="B141" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C141" s="22">
         <f t="shared" si="2"/>
@@ -19791,7 +19792,7 @@
       <c r="I141" s="22"/>
       <c r="J141" s="22"/>
       <c r="K141" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L141" s="22"/>
     </row>
@@ -19816,7 +19817,7 @@
       <c r="I142" s="22"/>
       <c r="J142" s="22"/>
       <c r="K142" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L142" s="22"/>
     </row>
@@ -19841,7 +19842,7 @@
       <c r="I143" s="22"/>
       <c r="J143" s="22"/>
       <c r="K143" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L143" s="22"/>
     </row>
@@ -19866,7 +19867,7 @@
       <c r="I144" s="22"/>
       <c r="J144" s="22"/>
       <c r="K144" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L144" s="22"/>
     </row>
@@ -19891,7 +19892,7 @@
       <c r="I145" s="22"/>
       <c r="J145" s="22"/>
       <c r="K145" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L145" s="22"/>
     </row>
@@ -19914,7 +19915,7 @@
       <c r="I146" s="22"/>
       <c r="J146" s="22"/>
       <c r="K146" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L146" s="22"/>
     </row>
@@ -19939,7 +19940,7 @@
       <c r="I147" s="22"/>
       <c r="J147" s="22"/>
       <c r="K147" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L147" s="22"/>
     </row>
@@ -19948,7 +19949,7 @@
         <v>2550</v>
       </c>
       <c r="B148" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C148" s="22">
         <f t="shared" si="2"/>
@@ -19962,7 +19963,7 @@
       <c r="I148" s="22"/>
       <c r="J148" s="22"/>
       <c r="K148" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L148" s="22"/>
     </row>
@@ -19983,7 +19984,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -20729,7 +20730,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="24"/>
       <c r="K5" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L5" s="22"/>
       <c r="O5" s="6"/>
@@ -20759,7 +20760,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L6" s="22"/>
       <c r="O6" s="6"/>
@@ -20786,7 +20787,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L7" s="25"/>
       <c r="O7" s="6"/>
@@ -20813,7 +20814,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L8" s="22"/>
       <c r="O8" s="6"/>
@@ -20844,7 +20845,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L9" s="22"/>
       <c r="O9" s="6"/>
@@ -20875,7 +20876,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L10" s="22"/>
       <c r="O10" s="6"/>
@@ -20902,7 +20903,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L11" s="22"/>
       <c r="O11" s="6"/>
@@ -20929,7 +20930,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L12" s="22"/>
       <c r="O12" s="6"/>
@@ -20956,7 +20957,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L13" s="22"/>
       <c r="O13" s="6"/>
@@ -20983,7 +20984,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L14" s="22"/>
       <c r="O14" s="6"/>
@@ -21010,7 +21011,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L15" s="25"/>
       <c r="O15" s="6"/>
@@ -21037,7 +21038,7 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L16" s="22"/>
     </row>
@@ -21062,7 +21063,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L17" s="22"/>
     </row>
@@ -21087,7 +21088,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L18" s="22"/>
     </row>
@@ -21112,7 +21113,7 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L19" s="22"/>
     </row>
@@ -21121,7 +21122,7 @@
         <v>385</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C20" s="22">
         <f t="shared" si="0"/>
@@ -21135,7 +21136,7 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L20" s="22"/>
     </row>
@@ -21160,7 +21161,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L21" s="22"/>
     </row>
@@ -21185,7 +21186,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L22" s="22"/>
     </row>
@@ -21210,7 +21211,7 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L23" s="22"/>
     </row>
@@ -21219,7 +21220,7 @@
         <v>467</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C24" s="22">
         <f t="shared" si="0"/>
@@ -21233,7 +21234,7 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L24" s="22"/>
     </row>
@@ -21258,10 +21259,10 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -21285,7 +21286,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L26" s="22"/>
     </row>
@@ -21294,7 +21295,7 @@
         <v>518</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C27" s="22">
         <f t="shared" si="0"/>
@@ -21308,7 +21309,7 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L27" s="22"/>
     </row>
@@ -21333,7 +21334,7 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L28" s="22"/>
     </row>
@@ -21342,7 +21343,7 @@
         <v>531</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C29" s="22">
         <f t="shared" si="0"/>
@@ -21356,7 +21357,7 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L29" s="22"/>
     </row>
@@ -21379,7 +21380,7 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L30" s="22"/>
     </row>
@@ -21388,7 +21389,7 @@
         <v>568</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C31" s="22">
         <f t="shared" si="0"/>
@@ -21402,7 +21403,7 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L31" s="22"/>
     </row>
@@ -21427,7 +21428,7 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L32" s="22"/>
     </row>
@@ -21452,7 +21453,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L33" s="22"/>
     </row>
@@ -21461,7 +21462,7 @@
         <v>630</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C34" s="22">
         <f t="shared" si="0"/>
@@ -21475,7 +21476,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L34" s="22"/>
     </row>
@@ -21484,7 +21485,7 @@
         <v>810</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C35" s="22">
         <f t="shared" si="0"/>
@@ -21498,7 +21499,7 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L35" s="22"/>
     </row>
@@ -21507,7 +21508,7 @@
         <v>822</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C36" s="22">
         <f t="shared" si="0"/>
@@ -21521,7 +21522,7 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L36" s="22"/>
     </row>
@@ -21546,7 +21547,7 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L37" s="22"/>
     </row>
@@ -21555,7 +21556,7 @@
         <v>837</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" s="22">
         <f t="shared" si="0"/>
@@ -21569,7 +21570,7 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L38" s="22"/>
     </row>
@@ -21594,7 +21595,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L39" s="22"/>
     </row>
@@ -21619,7 +21620,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L40" s="22"/>
     </row>
@@ -21644,7 +21645,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L41" s="22"/>
     </row>
@@ -21653,7 +21654,7 @@
         <v>899</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C42" s="22">
         <f t="shared" si="0"/>
@@ -21667,7 +21668,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L42" s="22"/>
     </row>
@@ -21692,7 +21693,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L43" s="22"/>
     </row>
@@ -21717,10 +21718,10 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -21744,7 +21745,7 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L45" s="22"/>
     </row>
@@ -21769,7 +21770,7 @@
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L46" s="22"/>
     </row>
@@ -21794,7 +21795,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L47" s="22"/>
     </row>
@@ -21819,7 +21820,7 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L48" s="22"/>
     </row>
@@ -21828,7 +21829,7 @@
         <v>1071</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C49" s="22">
         <f t="shared" si="0"/>
@@ -21842,7 +21843,7 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L49" s="22"/>
     </row>
@@ -21867,7 +21868,7 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L50" s="22"/>
     </row>
@@ -21876,7 +21877,7 @@
         <v>1083</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C51" s="22">
         <f t="shared" si="0"/>
@@ -21890,7 +21891,7 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L51" s="22"/>
     </row>
@@ -21899,7 +21900,7 @@
         <v>1100</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C52" s="22">
         <f t="shared" si="0"/>
@@ -21913,7 +21914,7 @@
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L52" s="22"/>
     </row>
@@ -21938,7 +21939,7 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L53" s="22"/>
     </row>
@@ -21947,7 +21948,7 @@
         <v>1148</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C54" s="22">
         <f t="shared" si="0"/>
@@ -21961,7 +21962,7 @@
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L54" s="22"/>
     </row>
@@ -21986,7 +21987,7 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L55" s="22"/>
     </row>
@@ -21995,7 +21996,7 @@
         <v>1182</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C56" s="22">
         <f t="shared" si="0"/>
@@ -22009,7 +22010,7 @@
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L56" s="22"/>
     </row>
@@ -22034,7 +22035,7 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L57" s="22"/>
     </row>
@@ -22043,7 +22044,7 @@
         <v>1191</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C58" s="22">
         <f t="shared" si="0"/>
@@ -22057,7 +22058,7 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L58" s="22"/>
     </row>
@@ -22066,7 +22067,7 @@
         <v>1220</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C59" s="22">
         <f t="shared" si="0"/>
@@ -22080,7 +22081,7 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L59" s="22"/>
     </row>
@@ -22089,7 +22090,7 @@
         <v>1235</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="22">
         <f t="shared" si="0"/>
@@ -22103,7 +22104,7 @@
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L60" s="22"/>
     </row>
@@ -22126,7 +22127,7 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L61" s="22"/>
     </row>
@@ -22135,7 +22136,7 @@
         <v>1248</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C62" s="22">
         <f t="shared" si="0"/>
@@ -22149,7 +22150,7 @@
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L62" s="25"/>
     </row>
@@ -22158,7 +22159,7 @@
         <v>1253</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="22">
         <f t="shared" si="0"/>
@@ -22172,7 +22173,7 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L63" s="22"/>
     </row>
@@ -22195,7 +22196,7 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L64" s="22"/>
     </row>
@@ -22218,7 +22219,7 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L65" s="22"/>
     </row>
@@ -22227,7 +22228,7 @@
         <v>1285</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C66" s="22">
         <f t="shared" si="0"/>
@@ -22241,7 +22242,7 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L66" s="22"/>
     </row>
@@ -22264,7 +22265,7 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L67" s="22"/>
     </row>
@@ -22273,7 +22274,7 @@
         <v>1293</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C68" s="22">
         <f t="shared" si="0"/>
@@ -22287,7 +22288,7 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L68" s="22"/>
     </row>
@@ -22310,7 +22311,7 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L69" s="22"/>
     </row>
@@ -22319,7 +22320,7 @@
         <v>1332</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C70" s="22">
         <f t="shared" ref="C70:C127" si="1">A71-A70</f>
@@ -22333,7 +22334,7 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L70" s="33"/>
     </row>
@@ -22358,7 +22359,7 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L71" s="22"/>
     </row>
@@ -22367,7 +22368,7 @@
         <v>1423</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C72" s="22">
         <f t="shared" si="1"/>
@@ -22381,7 +22382,7 @@
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L72" s="22"/>
     </row>
@@ -22406,7 +22407,7 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L73" s="22"/>
     </row>
@@ -22431,7 +22432,7 @@
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L74" s="22"/>
     </row>
@@ -22456,7 +22457,7 @@
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L75" s="22"/>
     </row>
@@ -22479,7 +22480,7 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L76" s="22"/>
     </row>
@@ -22504,7 +22505,7 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L77" s="22"/>
     </row>
@@ -22529,7 +22530,7 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L78" s="22"/>
     </row>
@@ -22554,10 +22555,10 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L79" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -22581,7 +22582,7 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L80" s="22"/>
     </row>
@@ -22590,7 +22591,7 @@
         <v>1605</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C81" s="22">
         <f t="shared" si="1"/>
@@ -22604,7 +22605,7 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L81" s="22"/>
     </row>
@@ -22629,7 +22630,7 @@
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L82" s="22"/>
     </row>
@@ -22654,7 +22655,7 @@
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L83" s="22"/>
     </row>
@@ -22679,7 +22680,7 @@
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L84" s="22"/>
     </row>
@@ -22688,7 +22689,7 @@
         <v>1745</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C85" s="22">
         <f t="shared" si="1"/>
@@ -22702,7 +22703,7 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L85" s="22"/>
     </row>
@@ -22727,7 +22728,7 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L86" s="22"/>
     </row>
@@ -22752,7 +22753,7 @@
       <c r="I87" s="22"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L87" s="22"/>
     </row>
@@ -22761,7 +22762,7 @@
         <v>1784</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C88" s="22">
         <f t="shared" si="1"/>
@@ -22775,7 +22776,7 @@
       <c r="I88" s="22"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L88" s="22"/>
     </row>
@@ -22800,7 +22801,7 @@
       <c r="I89" s="22"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L89" s="22"/>
     </row>
@@ -22823,7 +22824,7 @@
       <c r="I90" s="22"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L90" s="22"/>
     </row>
@@ -22848,7 +22849,7 @@
       <c r="I91" s="22"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L91" s="22"/>
     </row>
@@ -22871,7 +22872,7 @@
       <c r="I92" s="22"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L92" s="22"/>
     </row>
@@ -22896,7 +22897,7 @@
       <c r="I93" s="22"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L93" s="22"/>
     </row>
@@ -22919,7 +22920,7 @@
       <c r="I94" s="22"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L94" s="22"/>
     </row>
@@ -22944,7 +22945,7 @@
       <c r="I95" s="22"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L95" s="22"/>
     </row>
@@ -22969,7 +22970,7 @@
       <c r="I96" s="22"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L96" s="22"/>
     </row>
@@ -22992,7 +22993,7 @@
       <c r="I97" s="22"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L97" s="22"/>
     </row>
@@ -23017,7 +23018,7 @@
       <c r="I98" s="22"/>
       <c r="J98" s="22"/>
       <c r="K98" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L98" s="22"/>
     </row>
@@ -23042,7 +23043,7 @@
       <c r="I99" s="22"/>
       <c r="J99" s="22"/>
       <c r="K99" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L99" s="22"/>
     </row>
@@ -23067,7 +23068,7 @@
       <c r="I100" s="22"/>
       <c r="J100" s="22"/>
       <c r="K100" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L100" s="22"/>
     </row>
@@ -23092,7 +23093,7 @@
       <c r="I101" s="22"/>
       <c r="J101" s="22"/>
       <c r="K101" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L101" s="22"/>
     </row>
@@ -23117,7 +23118,7 @@
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
       <c r="K102" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L102" s="22"/>
     </row>
@@ -23142,7 +23143,7 @@
       <c r="I103" s="22"/>
       <c r="J103" s="22"/>
       <c r="K103" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L103" s="22"/>
     </row>
@@ -23167,7 +23168,7 @@
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
       <c r="K104" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L104" s="22"/>
     </row>
@@ -23192,7 +23193,7 @@
       <c r="I105" s="22"/>
       <c r="J105" s="22"/>
       <c r="K105" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L105" s="22"/>
     </row>
@@ -23217,10 +23218,10 @@
       <c r="I106" s="22"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L106" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -23244,10 +23245,10 @@
       <c r="I107" s="22"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L107" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -23271,10 +23272,10 @@
       <c r="I108" s="22"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L108" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -23298,7 +23299,7 @@
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L109" s="22"/>
     </row>
@@ -23323,7 +23324,7 @@
       <c r="I110" s="22"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L110" s="22"/>
     </row>
@@ -23348,7 +23349,7 @@
       <c r="I111" s="22"/>
       <c r="J111" s="22"/>
       <c r="K111" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L111" s="22"/>
     </row>
@@ -23373,7 +23374,7 @@
       <c r="I112" s="22"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L112" s="22"/>
     </row>
@@ -23398,7 +23399,7 @@
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L113" s="22"/>
     </row>
@@ -23423,7 +23424,7 @@
       <c r="I114" s="22"/>
       <c r="J114" s="22"/>
       <c r="K114" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L114" s="22"/>
     </row>
@@ -23448,7 +23449,7 @@
       <c r="I115" s="22"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L115" s="22"/>
     </row>
@@ -23473,7 +23474,7 @@
       <c r="I116" s="22"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L116" s="22"/>
     </row>
@@ -23498,7 +23499,7 @@
       <c r="I117" s="22"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L117" s="22"/>
     </row>
@@ -23523,7 +23524,7 @@
       <c r="I118" s="22"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L118" s="22"/>
     </row>
@@ -23569,7 +23570,7 @@
       <c r="I120" s="22"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L120" s="22"/>
     </row>
@@ -23594,7 +23595,7 @@
       <c r="I121" s="22"/>
       <c r="J121" s="22"/>
       <c r="K121" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L121" s="22"/>
     </row>
@@ -23619,7 +23620,7 @@
       <c r="I122" s="22"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L122" s="22"/>
     </row>
@@ -23644,7 +23645,7 @@
       <c r="I123" s="22"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L123" s="22"/>
     </row>
@@ -23669,7 +23670,7 @@
       <c r="I124" s="22"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L124" s="22"/>
     </row>
@@ -23694,7 +23695,7 @@
       <c r="I125" s="22"/>
       <c r="J125" s="22"/>
       <c r="K125" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L125" s="22"/>
     </row>
@@ -23719,7 +23720,7 @@
       <c r="I126" s="22"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L126" s="22"/>
     </row>
@@ -23744,7 +23745,7 @@
       <c r="I127" s="22"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L127" s="22"/>
     </row>
@@ -23765,7 +23766,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBC8BD-3E16-4916-8A40-43F1A6CC6BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4029C-874F-4C95-98DB-650548295308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="526">
   <si>
     <t>D1</t>
   </si>
@@ -2038,7 +2039,7 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2060,7 +2061,7 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -2078,7 +2079,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2097,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2115,7 +2116,7 @@
       <c r="L3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -2160,7 +2161,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>35</v>
       </c>
@@ -2187,7 +2188,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>40</v>
       </c>
@@ -2209,7 +2210,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>45</v>
       </c>
@@ -2229,7 +2230,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>50</v>
       </c>
@@ -2255,7 +2256,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>55</v>
       </c>
@@ -2279,7 +2280,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>78</v>
       </c>
@@ -2299,7 +2300,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>93</v>
       </c>
@@ -2319,7 +2320,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>95</v>
       </c>
@@ -2337,7 +2338,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>100</v>
       </c>
@@ -2358,7 +2359,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>142</v>
       </c>
@@ -2377,7 +2378,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>204</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>218</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>222</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>240</v>
       </c>
@@ -2452,7 +2453,7 @@
       </c>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>246</v>
       </c>
@@ -2471,7 +2472,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>250</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>288</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>304</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>338</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>342</v>
       </c>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>353</v>
       </c>
@@ -2575,7 +2576,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>364</v>
       </c>
@@ -2594,7 +2595,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>369</v>
       </c>
@@ -2613,7 +2614,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>414</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>433</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>441</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>479</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>483</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>506</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>510</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>512</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>538</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>547</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>579</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>587</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>590</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>595</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>604</v>
       </c>
@@ -2874,7 +2875,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>647</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>690</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>696</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>701</v>
       </c>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>706</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>720</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>745</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>782</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>787</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>867</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>881</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>888</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>893</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>900</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>911</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>929</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>943</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>950</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>948</v>
       </c>
@@ -3224,7 +3225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>970</v>
       </c>
@@ -3243,7 +3244,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>994</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>1015</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>1017</v>
       </c>
@@ -3300,7 +3301,7 @@
       </c>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>1035</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>1043</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>1091</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>1095</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>1104</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>1143</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>1147</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>1162</v>
       </c>
@@ -3442,7 +3443,7 @@
       </c>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1174</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>1179</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>1191</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>1230</v>
       </c>
@@ -3515,7 +3516,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>1232</v>
       </c>
@@ -3534,7 +3535,7 @@
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>1235</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>1244</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>1253</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>1257</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>1288</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>1295</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>1322</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>1340</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>1372</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>1398</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>1408</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>1445</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>1455</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>1489</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>1510</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>1520</v>
       </c>
@@ -3811,7 +3812,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>1533</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>1582</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>1590</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>1620</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>1679</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>1686</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>1690</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>1695</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>1786</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>1792</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>1839</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>1845</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>1889</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>1944</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>1965</v>
       </c>
@@ -4074,7 +4075,7 @@
       </c>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>1975</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>1980</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>1998</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>2000</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>2005</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>2012</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>2043</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>2052</v>
       </c>
@@ -4212,7 +4213,7 @@
       </c>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>2061</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>2068</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>2100</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>2130</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>2139</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>2152</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>2157</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>2187</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>2192</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>2200</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>2202</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>2205</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>2207</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>2243</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>2246</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>2254</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>2266</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>2281</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>2290</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>2311</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>2319</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>2347</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>2380</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>2392</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>2401</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>2428</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>2460</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>2476</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>2485</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>2492</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>2542</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>2548</v>
       </c>
@@ -4792,7 +4793,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>2592</v>
       </c>
@@ -4803,84 +4804,84 @@
       <c r="D151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -4888,231 +4889,231 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -16218,11 +16219,11 @@
   </sheetPr>
   <dimension ref="A1:U234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E136" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A150" sqref="A150"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -18113,7 +18114,7 @@
         <v>789</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C74" s="22">
         <f t="shared" si="1"/>
@@ -19983,9 +19984,7 @@
       <c r="L149" s="22"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="A150" s="22"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -20174,294 +20173,294 @@
       <c r="D176" s="6"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="K201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="K202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="K203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="K205" s="6"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="K206" s="6"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="K211" s="6"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="K213" s="6"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="K216" s="6"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -20469,113 +20468,114 @@
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="K219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="C233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U149" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K107:L107"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_G1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4029C-874F-4C95-98DB-650548295308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C3A663-AA0C-40A6-874E-BF9C73490CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'S1'!$A$4:$U$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12374,11 +12376,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I170" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A190" sqref="A190"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16086,14 +16088,14 @@
       <c r="D217" s="6"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="K218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -16101,113 +16103,114 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U189" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16219,8 +16222,8 @@
   </sheetPr>
   <dimension ref="A1:U234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
@@ -16241,7 +16244,7 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -16259,7 +16262,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -16277,7 +16280,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -16296,7 +16299,7 @@
       <c r="L3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -16341,7 +16344,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>0</v>
       </c>
@@ -16373,7 +16376,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>1</v>
       </c>
@@ -16400,7 +16403,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -16427,7 +16430,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>16</v>
       </c>
@@ -16458,7 +16461,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>21</v>
       </c>
@@ -16489,7 +16492,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>23</v>
       </c>
@@ -16516,7 +16519,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>27</v>
       </c>
@@ -16543,7 +16546,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>48</v>
       </c>
@@ -16570,7 +16573,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>52</v>
       </c>
@@ -16597,7 +16600,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>67</v>
       </c>
@@ -16624,7 +16627,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>86</v>
       </c>
@@ -16651,7 +16654,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>102</v>
       </c>
@@ -16676,7 +16679,7 @@
       </c>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>107</v>
       </c>
@@ -16699,7 +16702,7 @@
       </c>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>118</v>
       </c>
@@ -16724,7 +16727,7 @@
       </c>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>120</v>
       </c>
@@ -16749,7 +16752,7 @@
       </c>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>124</v>
       </c>
@@ -16774,7 +16777,7 @@
       </c>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>127</v>
       </c>
@@ -16799,7 +16802,7 @@
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>150</v>
       </c>
@@ -16824,7 +16827,7 @@
       </c>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>165</v>
       </c>
@@ -16849,7 +16852,7 @@
       </c>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>169</v>
       </c>
@@ -16874,7 +16877,7 @@
       </c>
       <c r="L24" s="22"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>190</v>
       </c>
@@ -16899,7 +16902,7 @@
       </c>
       <c r="L25" s="22"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>196</v>
       </c>
@@ -16924,7 +16927,7 @@
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>210</v>
       </c>
@@ -16947,7 +16950,7 @@
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <v>222</v>
       </c>
@@ -16972,7 +16975,7 @@
       </c>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>227</v>
       </c>
@@ -16997,7 +17000,7 @@
       </c>
       <c r="L29" s="22"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>240</v>
       </c>
@@ -17022,7 +17025,7 @@
       </c>
       <c r="L30" s="22"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>278</v>
       </c>
@@ -17047,7 +17050,7 @@
       </c>
       <c r="L31" s="22"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>281</v>
       </c>
@@ -17072,7 +17075,7 @@
       </c>
       <c r="L32" s="22"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>288</v>
       </c>
@@ -17097,7 +17100,7 @@
       </c>
       <c r="L33" s="22"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>291</v>
       </c>
@@ -17122,7 +17125,7 @@
       </c>
       <c r="L34" s="22"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>298</v>
       </c>
@@ -17147,7 +17150,7 @@
       </c>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>301</v>
       </c>
@@ -17172,7 +17175,7 @@
       </c>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>304</v>
       </c>
@@ -17197,7 +17200,7 @@
       </c>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>307</v>
       </c>
@@ -17222,7 +17225,7 @@
       </c>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>346</v>
       </c>
@@ -17249,7 +17252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>380</v>
       </c>
@@ -17276,7 +17279,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>399</v>
       </c>
@@ -17303,7 +17306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>440</v>
       </c>
@@ -17330,7 +17333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>488</v>
       </c>
@@ -17357,7 +17360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <v>491</v>
       </c>
@@ -17382,7 +17385,7 @@
       </c>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>493</v>
       </c>
@@ -17407,7 +17410,7 @@
       </c>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <v>497</v>
       </c>
@@ -17432,7 +17435,7 @@
       </c>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <v>504</v>
       </c>
@@ -17459,7 +17462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <v>510</v>
       </c>
@@ -17486,7 +17489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <v>514</v>
       </c>
@@ -17511,7 +17514,7 @@
       </c>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <v>524</v>
       </c>
@@ -17536,7 +17539,7 @@
       </c>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <v>533</v>
       </c>
@@ -17561,7 +17564,7 @@
       </c>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>558</v>
       </c>
@@ -17586,7 +17589,7 @@
       </c>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <v>559</v>
       </c>
@@ -17611,7 +17614,7 @@
       </c>
       <c r="L53" s="22"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <v>621</v>
       </c>
@@ -17636,7 +17639,7 @@
       </c>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <v>625</v>
       </c>
@@ -17661,7 +17664,7 @@
       </c>
       <c r="L55" s="33"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <v>660</v>
       </c>
@@ -17686,7 +17689,7 @@
       </c>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <v>663</v>
       </c>
@@ -17711,7 +17714,7 @@
       </c>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <v>667</v>
       </c>
@@ -17736,7 +17739,7 @@
       </c>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="21">
         <v>689</v>
       </c>
@@ -17761,7 +17764,7 @@
       </c>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="21">
         <v>692</v>
       </c>
@@ -17786,7 +17789,7 @@
       </c>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="21">
         <v>695</v>
       </c>
@@ -17811,7 +17814,7 @@
       </c>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="21">
         <v>697</v>
       </c>
@@ -17836,7 +17839,7 @@
       </c>
       <c r="L62" s="22"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="21">
         <v>703</v>
       </c>
@@ -17861,7 +17864,7 @@
       </c>
       <c r="L63" s="22"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="21">
         <v>712</v>
       </c>
@@ -17886,7 +17889,7 @@
       </c>
       <c r="L64" s="25"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="21">
         <v>716</v>
       </c>
@@ -17911,7 +17914,7 @@
       </c>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="21">
         <v>718</v>
       </c>
@@ -17936,7 +17939,7 @@
       </c>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="21">
         <v>722</v>
       </c>
@@ -17961,7 +17964,7 @@
       </c>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="21">
         <v>759</v>
       </c>
@@ -17986,7 +17989,7 @@
       </c>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="21">
         <v>764</v>
       </c>
@@ -18011,7 +18014,7 @@
       </c>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="21">
         <v>767</v>
       </c>
@@ -18034,7 +18037,7 @@
       </c>
       <c r="L70" s="22"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="21">
         <v>774</v>
       </c>
@@ -18059,7 +18062,7 @@
       </c>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="21">
         <v>782</v>
       </c>
@@ -18084,7 +18087,7 @@
       </c>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="21">
         <v>786</v>
       </c>
@@ -18109,7 +18112,7 @@
       </c>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
         <v>789</v>
       </c>
@@ -18134,7 +18137,7 @@
       </c>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>791</v>
       </c>
@@ -18159,7 +18162,7 @@
       </c>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>794</v>
       </c>
@@ -18184,7 +18187,7 @@
       </c>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>808</v>
       </c>
@@ -18209,7 +18212,7 @@
       </c>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
         <v>872</v>
       </c>
@@ -18234,7 +18237,7 @@
       </c>
       <c r="L78" s="22"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
         <v>889</v>
       </c>
@@ -18259,7 +18262,7 @@
       </c>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
         <v>892</v>
       </c>
@@ -18284,7 +18287,7 @@
       </c>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
         <v>894</v>
       </c>
@@ -18307,7 +18310,7 @@
       </c>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>899</v>
       </c>
@@ -18332,7 +18335,7 @@
       </c>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>920</v>
       </c>
@@ -18355,7 +18358,7 @@
       </c>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>944</v>
       </c>
@@ -18380,7 +18383,7 @@
       </c>
       <c r="L84" s="22"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>948</v>
       </c>
@@ -18405,7 +18408,7 @@
       </c>
       <c r="L85" s="22"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>963</v>
       </c>
@@ -18430,7 +18433,7 @@
       </c>
       <c r="L86" s="22"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>981</v>
       </c>
@@ -18455,7 +18458,7 @@
       </c>
       <c r="L87" s="22"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>997</v>
       </c>
@@ -18480,7 +18483,7 @@
       </c>
       <c r="L88" s="22"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>1027</v>
       </c>
@@ -18505,7 +18508,7 @@
       </c>
       <c r="L89" s="22"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>1062</v>
       </c>
@@ -18530,7 +18533,7 @@
       </c>
       <c r="L90" s="22"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>1090</v>
       </c>
@@ -18555,7 +18558,7 @@
       </c>
       <c r="L91" s="22"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>1116</v>
       </c>
@@ -18580,7 +18583,7 @@
       </c>
       <c r="L92" s="22"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>1158</v>
       </c>
@@ -18605,7 +18608,7 @@
       </c>
       <c r="L93" s="22"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>1163</v>
       </c>
@@ -18630,7 +18633,7 @@
       </c>
       <c r="L94" s="22"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>1177</v>
       </c>
@@ -18655,7 +18658,7 @@
       </c>
       <c r="L95" s="22"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <v>1182</v>
       </c>
@@ -18680,7 +18683,7 @@
       </c>
       <c r="L96" s="22"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>1184</v>
       </c>
@@ -18705,7 +18708,7 @@
       </c>
       <c r="L97" s="22"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>1227</v>
       </c>
@@ -18730,7 +18733,7 @@
       </c>
       <c r="L98" s="22"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>1247</v>
       </c>
@@ -18755,7 +18758,7 @@
       </c>
       <c r="L99" s="22"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>1268</v>
       </c>
@@ -18780,7 +18783,7 @@
       </c>
       <c r="L100" s="22"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>1277</v>
       </c>
@@ -18805,7 +18808,7 @@
       </c>
       <c r="L101" s="22"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>1280</v>
       </c>
@@ -18830,7 +18833,7 @@
       </c>
       <c r="L102" s="22"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>1299</v>
       </c>
@@ -18855,7 +18858,7 @@
       </c>
       <c r="L103" s="22"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>1341</v>
       </c>
@@ -18880,7 +18883,7 @@
       </c>
       <c r="L104" s="22"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>1343</v>
       </c>
@@ -18905,7 +18908,7 @@
       </c>
       <c r="L105" s="22"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>1369</v>
       </c>
@@ -18930,7 +18933,7 @@
       </c>
       <c r="L106" s="22"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>1372</v>
       </c>
@@ -18955,7 +18958,7 @@
       </c>
       <c r="L107" s="33"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>1463</v>
       </c>
@@ -18980,7 +18983,7 @@
       </c>
       <c r="L108" s="22"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>1467</v>
       </c>
@@ -19005,7 +19008,7 @@
       </c>
       <c r="L109" s="22"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>1476</v>
       </c>
@@ -19030,7 +19033,7 @@
       </c>
       <c r="L110" s="22"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>1485</v>
       </c>
@@ -19055,7 +19058,7 @@
       </c>
       <c r="L111" s="22"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>1530</v>
       </c>
@@ -19080,7 +19083,7 @@
       </c>
       <c r="L112" s="22"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>1567</v>
       </c>
@@ -19105,7 +19108,7 @@
       </c>
       <c r="L113" s="22"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>1584</v>
       </c>
@@ -19130,7 +19133,7 @@
       </c>
       <c r="L114" s="22"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <v>1590</v>
       </c>
@@ -19155,7 +19158,7 @@
       </c>
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <v>1596</v>
       </c>
@@ -19180,7 +19183,7 @@
       </c>
       <c r="L116" s="22"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <v>1601</v>
       </c>
@@ -19205,7 +19208,7 @@
       </c>
       <c r="L117" s="22"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
         <v>1618</v>
       </c>
@@ -19230,7 +19233,7 @@
       </c>
       <c r="L118" s="22"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>1643</v>
       </c>
@@ -19255,7 +19258,7 @@
       </c>
       <c r="L119" s="22"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <v>1670</v>
       </c>
@@ -19280,7 +19283,7 @@
       </c>
       <c r="L120" s="22"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="21">
         <v>1690</v>
       </c>
@@ -19305,7 +19308,7 @@
       </c>
       <c r="L121" s="33"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <v>2092</v>
       </c>
@@ -19330,7 +19333,7 @@
       </c>
       <c r="L122" s="22"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
         <v>2095</v>
       </c>
@@ -19355,7 +19358,7 @@
       </c>
       <c r="L123" s="22"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
         <v>2139</v>
       </c>
@@ -19380,7 +19383,7 @@
       </c>
       <c r="L124" s="22"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
         <v>2149</v>
       </c>
@@ -19405,7 +19408,7 @@
       </c>
       <c r="L125" s="22"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
         <v>2180</v>
       </c>
@@ -19430,7 +19433,7 @@
       </c>
       <c r="L126" s="22"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
         <v>2192</v>
       </c>
@@ -19455,7 +19458,7 @@
       </c>
       <c r="L127" s="22"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>2218</v>
       </c>
@@ -19480,7 +19483,7 @@
       </c>
       <c r="L128" s="22"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="21">
         <v>2221</v>
       </c>
@@ -19503,7 +19506,7 @@
       </c>
       <c r="L129" s="22"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="21">
         <v>2225</v>
       </c>
@@ -19528,7 +19531,7 @@
       </c>
       <c r="L130" s="22"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <v>2241</v>
       </c>
@@ -19551,7 +19554,7 @@
       </c>
       <c r="L131" s="22"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="21">
         <v>2283</v>
       </c>
@@ -19576,7 +19579,7 @@
       </c>
       <c r="L132" s="22"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="21">
         <v>2308</v>
       </c>
@@ -19601,7 +19604,7 @@
       </c>
       <c r="L133" s="22"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="21">
         <v>2331</v>
       </c>
@@ -19626,7 +19629,7 @@
       </c>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="21">
         <v>2333</v>
       </c>
@@ -19649,7 +19652,7 @@
       </c>
       <c r="L135" s="22"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="21">
         <v>2335</v>
       </c>
@@ -19674,7 +19677,7 @@
       </c>
       <c r="L136" s="22"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="21">
         <v>2346</v>
       </c>
@@ -19699,7 +19702,7 @@
       </c>
       <c r="L137" s="22"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="21">
         <v>2360</v>
       </c>
@@ -19724,7 +19727,7 @@
       </c>
       <c r="L138" s="22"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="21">
         <v>2377</v>
       </c>
@@ -19749,7 +19752,7 @@
       </c>
       <c r="L139" s="22"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="21">
         <v>2390</v>
       </c>
@@ -19774,7 +19777,7 @@
       </c>
       <c r="L140" s="22"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="21">
         <v>2404</v>
       </c>
@@ -19797,7 +19800,7 @@
       </c>
       <c r="L141" s="22"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="21">
         <v>2408</v>
       </c>
@@ -19822,7 +19825,7 @@
       </c>
       <c r="L142" s="22"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="21">
         <v>2460</v>
       </c>
@@ -19847,7 +19850,7 @@
       </c>
       <c r="L143" s="22"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="21">
         <v>2462</v>
       </c>
@@ -19872,7 +19875,7 @@
       </c>
       <c r="L144" s="22"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="21">
         <v>2468</v>
       </c>
@@ -19897,7 +19900,7 @@
       </c>
       <c r="L145" s="22"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="21">
         <v>2471</v>
       </c>
@@ -19920,7 +19923,7 @@
       </c>
       <c r="L146" s="22"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="21">
         <v>2484</v>
       </c>
@@ -19945,7 +19948,7 @@
       </c>
       <c r="L147" s="22"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="21">
         <v>2550</v>
       </c>
@@ -19968,7 +19971,7 @@
       </c>
       <c r="L148" s="22"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="21">
         <v>2585</v>
       </c>
@@ -19983,91 +19986,91 @@
       <c r="K149" s="22"/>
       <c r="L149" s="22"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="K150" s="6"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -20075,98 +20078,98 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="K163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -20593,7 +20596,7 @@
   <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22411,7 +22414,7 @@
       </c>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="21">
         <v>1445</v>
       </c>
@@ -22436,7 +22439,7 @@
       </c>
       <c r="L74" s="22"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="21">
         <v>1455</v>
       </c>
@@ -22461,7 +22464,7 @@
       </c>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="21">
         <v>1458</v>
       </c>
@@ -22484,7 +22487,7 @@
       </c>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="21">
         <v>1495</v>
       </c>
@@ -22509,7 +22512,7 @@
       </c>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="21">
         <v>1499</v>
       </c>
@@ -22534,7 +22537,7 @@
       </c>
       <c r="L78" s="22"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="21">
         <v>1535</v>
       </c>
@@ -22561,7 +22564,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="21">
         <v>1580</v>
       </c>
@@ -22586,7 +22589,7 @@
       </c>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="21">
         <v>1605</v>
       </c>
@@ -22609,7 +22612,7 @@
       </c>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="21">
         <v>1616</v>
       </c>
@@ -22634,7 +22637,7 @@
       </c>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="21">
         <v>1670</v>
       </c>
@@ -22659,7 +22662,7 @@
       </c>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="21">
         <v>1681</v>
       </c>
@@ -22684,7 +22687,7 @@
       </c>
       <c r="L84" s="22"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="21">
         <v>1745</v>
       </c>
@@ -22707,7 +22710,7 @@
       </c>
       <c r="L85" s="22"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="21">
         <v>1760</v>
       </c>
@@ -22732,7 +22735,7 @@
       </c>
       <c r="L86" s="22"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="21">
         <v>1771</v>
       </c>
@@ -22757,7 +22760,7 @@
       </c>
       <c r="L87" s="22"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="21">
         <v>1784</v>
       </c>
@@ -22780,7 +22783,7 @@
       </c>
       <c r="L88" s="22"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="21">
         <v>1786</v>
       </c>
@@ -22805,7 +22808,7 @@
       </c>
       <c r="L89" s="22"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="21">
         <v>1797</v>
       </c>
@@ -22828,7 +22831,7 @@
       </c>
       <c r="L90" s="22"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="21">
         <v>1804</v>
       </c>
@@ -22853,7 +22856,7 @@
       </c>
       <c r="L91" s="22"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="21">
         <v>1808</v>
       </c>
@@ -22876,7 +22879,7 @@
       </c>
       <c r="L92" s="22"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="21">
         <v>1812</v>
       </c>
@@ -22901,7 +22904,7 @@
       </c>
       <c r="L93" s="22"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="21">
         <v>1820</v>
       </c>
@@ -22924,7 +22927,7 @@
       </c>
       <c r="L94" s="22"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="21">
         <v>1826</v>
       </c>
@@ -22949,7 +22952,7 @@
       </c>
       <c r="L95" s="22"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="21">
         <v>1831</v>
       </c>
@@ -22974,7 +22977,7 @@
       </c>
       <c r="L96" s="22"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="21">
         <v>1903</v>
       </c>
@@ -22997,7 +23000,7 @@
       </c>
       <c r="L97" s="22"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="21">
         <v>1905</v>
       </c>
@@ -23022,7 +23025,7 @@
       </c>
       <c r="L98" s="22"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="21">
         <v>1907</v>
       </c>
@@ -23047,7 +23050,7 @@
       </c>
       <c r="L99" s="22"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="21">
         <v>1910</v>
       </c>
@@ -23072,7 +23075,7 @@
       </c>
       <c r="L100" s="22"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="21">
         <v>1915</v>
       </c>
@@ -23097,7 +23100,7 @@
       </c>
       <c r="L101" s="22"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="21">
         <v>1919</v>
       </c>
@@ -23122,7 +23125,7 @@
       </c>
       <c r="L102" s="22"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="21">
         <v>1925</v>
       </c>
@@ -23147,7 +23150,7 @@
       </c>
       <c r="L103" s="22"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="21">
         <v>1927</v>
       </c>
@@ -23172,7 +23175,7 @@
       </c>
       <c r="L104" s="22"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="21">
         <v>1968</v>
       </c>
@@ -23197,7 +23200,7 @@
       </c>
       <c r="L105" s="22"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="21">
         <v>1983</v>
       </c>
@@ -23224,7 +23227,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <v>2010</v>
       </c>
@@ -23251,7 +23254,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="21">
         <v>2040</v>
       </c>
@@ -23278,7 +23281,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="21">
         <v>2111</v>
       </c>
@@ -23303,7 +23306,7 @@
       </c>
       <c r="L109" s="22"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="21">
         <v>2119</v>
       </c>
@@ -23328,7 +23331,7 @@
       </c>
       <c r="L110" s="22"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <v>2232</v>
       </c>
@@ -23353,7 +23356,7 @@
       </c>
       <c r="L111" s="22"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="21">
         <v>2240</v>
       </c>
@@ -23378,7 +23381,7 @@
       </c>
       <c r="L112" s="22"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="21">
         <v>2275</v>
       </c>
@@ -23403,7 +23406,7 @@
       </c>
       <c r="L113" s="22"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="21">
         <v>2279</v>
       </c>
@@ -23428,7 +23431,7 @@
       </c>
       <c r="L114" s="22"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="21">
         <v>2303</v>
       </c>
@@ -23453,7 +23456,7 @@
       </c>
       <c r="L115" s="22"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="21">
         <v>2312</v>
       </c>
@@ -23478,7 +23481,7 @@
       </c>
       <c r="L116" s="22"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="21">
         <v>2360</v>
       </c>
@@ -23503,7 +23506,7 @@
       </c>
       <c r="L117" s="22"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="21">
         <v>2364</v>
       </c>
@@ -23528,7 +23531,7 @@
       </c>
       <c r="L118" s="22"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="21">
         <v>2482</v>
       </c>
@@ -23549,7 +23552,7 @@
       <c r="K119" s="22"/>
       <c r="L119" s="22"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="21">
         <v>2506</v>
       </c>
@@ -23574,7 +23577,7 @@
       </c>
       <c r="L120" s="22"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="21">
         <v>2511</v>
       </c>
@@ -23599,7 +23602,7 @@
       </c>
       <c r="L121" s="22"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <v>2540</v>
       </c>
@@ -23624,7 +23627,7 @@
       </c>
       <c r="L122" s="22"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="21">
         <v>2580</v>
       </c>
@@ -23649,7 +23652,7 @@
       </c>
       <c r="L123" s="22"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="21">
         <v>2588</v>
       </c>
@@ -23674,7 +23677,7 @@
       </c>
       <c r="L124" s="22"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="21">
         <v>2609</v>
       </c>
@@ -23699,7 +23702,7 @@
       </c>
       <c r="L125" s="22"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="21">
         <v>2632</v>
       </c>
@@ -23724,7 +23727,7 @@
       </c>
       <c r="L126" s="22"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="21">
         <v>2641</v>
       </c>
@@ -23749,7 +23752,7 @@
       </c>
       <c r="L127" s="22"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="21">
         <v>2700</v>
       </c>
@@ -23764,7 +23767,7 @@
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
         <v>122</v>
       </c>
@@ -23773,119 +23776,119 @@
       <c r="D129" s="6"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -23893,119 +23896,119 @@
       <c r="F146" s="12"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="K149" s="6"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="K150" s="6"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -24013,392 +24016,392 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="K200" s="6"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="K201" s="6"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="K202" s="6"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="K203" s="6"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="K204" s="6"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="K205" s="6"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="K206" s="6"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="K207" s="6"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="K208" s="6"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="K209" s="6"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="K210" s="6"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="K211" s="6"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="K212" s="6"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="K213" s="6"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="K214" s="6"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="K215" s="6"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="K216" s="6"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="K217" s="6"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="K218" s="6"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -24406,113 +24409,114 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="K220" s="6"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="K221" s="6"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="K222" s="6"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="K223" s="6"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="K224" s="6"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="K225" s="6"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="K226" s="6"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="K227" s="6"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="K228" s="6"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="K229" s="6"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="K230" s="6"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="K231" s="6"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="K232" s="6"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="K233" s="6"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U129" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="K70:L70"/>
   </mergeCells>
